--- a/artfynd/A 41290-2025 artfynd.xlsx
+++ b/artfynd/A 41290-2025 artfynd.xlsx
@@ -924,7 +924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131067470</v>
+        <v>131067020</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -955,14 +955,14 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>465713</v>
+        <v>466180</v>
       </c>
       <c r="R4" t="n">
-        <v>7046828</v>
+        <v>7046800</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -992,24 +992,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Död gran</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,22 +1014,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131066991</v>
+        <v>131067470</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1047,42 +1037,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466192</v>
+        <v>465713</v>
       </c>
       <c r="R5" t="n">
-        <v>7046678</v>
+        <v>7046828</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1112,14 +1094,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran.</t>
+          <t>Död gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1130,48 +1122,23 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067020</v>
+        <v>131067023</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1200,16 +1167,19 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466180</v>
+        <v>466072</v>
       </c>
       <c r="R6" t="n">
-        <v>7046800</v>
+        <v>7046758</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1246,7 +1216,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,8 +1225,34 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1273,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067023</v>
+        <v>131066991</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1284,26 +1280,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1311,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466072</v>
+        <v>466192</v>
       </c>
       <c r="R7" t="n">
-        <v>7046758</v>
+        <v>7046678</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1351,7 +1352,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, enstaka på en gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,13 +1361,12 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131067469</v>
+        <v>131067808</v>
       </c>
       <c r="B14" t="n">
-        <v>57064</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2150,16 +2150,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>102612</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2167,25 +2167,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>465770</v>
+        <v>465816</v>
       </c>
       <c r="R14" t="n">
-        <v>7046758</v>
+        <v>7046818</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2215,24 +2215,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Flög upp.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2243,26 +2233,51 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131067808</v>
+        <v>131067469</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>57064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2270,16 +2285,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>102612</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2287,25 +2302,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>465816</v>
+        <v>465770</v>
       </c>
       <c r="R15" t="n">
-        <v>7046818</v>
+        <v>7046758</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2335,14 +2350,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Flög upp.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2353,51 +2378,26 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131067766</v>
+        <v>131067456</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2405,42 +2405,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466011</v>
+        <v>466261</v>
       </c>
       <c r="R16" t="n">
-        <v>7046933</v>
+        <v>7046745</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2470,14 +2462,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på gran.</t>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2488,41 +2485,16 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -2648,10 +2620,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131067459</v>
+        <v>131067463</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2659,21 +2631,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2683,7 +2655,7 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466261</v>
+        <v>466198</v>
       </c>
       <c r="R18" t="n">
         <v>7046954</v>
@@ -2718,7 +2690,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2728,7 +2700,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2755,10 +2732,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131067463</v>
+        <v>131067459</v>
       </c>
       <c r="B19" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2766,21 +2743,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2790,7 +2767,7 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466198</v>
+        <v>466261</v>
       </c>
       <c r="R19" t="n">
         <v>7046954</v>
@@ -2825,7 +2802,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2835,12 +2812,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Sälg</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2867,10 +2839,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131067456</v>
+        <v>131067766</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2878,34 +2850,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466261</v>
+        <v>466011</v>
       </c>
       <c r="R20" t="n">
-        <v>7046745</v>
+        <v>7046933</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2935,19 +2915,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>10:34</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>10:34</t>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2958,61 +2933,86 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131067464</v>
+        <v>131067025</v>
       </c>
       <c r="B21" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466197</v>
+        <v>466160</v>
       </c>
       <c r="R21" t="n">
-        <v>7046956</v>
+        <v>7046687</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3042,24 +3042,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Död sälg</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3074,12 +3064,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3193,32 +3183,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067467</v>
+        <v>131067464</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3228,10 +3218,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>465982</v>
+        <v>466197</v>
       </c>
       <c r="R23" t="n">
-        <v>7046926</v>
+        <v>7046956</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3263,7 +3253,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3273,7 +3263,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Död sälg</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3300,7 +3295,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067025</v>
+        <v>131067014</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3329,16 +3324,19 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466160</v>
+        <v>465848</v>
       </c>
       <c r="R24" t="n">
-        <v>7046687</v>
+        <v>7046818</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3375,7 +3373,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3384,8 +3382,34 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3402,7 +3426,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131067014</v>
+        <v>131067467</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3431,19 +3455,16 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>465848</v>
+        <v>465982</v>
       </c>
       <c r="R25" t="n">
-        <v>7046818</v>
+        <v>7046926</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3473,14 +3494,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>På gran i granskog.</t>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3489,44 +3515,18 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131066990</v>
+        <v>131067775</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3841,10 +3841,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466169</v>
+        <v>466299</v>
       </c>
       <c r="R28" t="n">
-        <v>7046684</v>
+        <v>7047010</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3908,14 +3908,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3933,7 +3928,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131067460</v>
+        <v>131066990</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3972,14 +3967,14 @@
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466264</v>
+        <v>466169</v>
       </c>
       <c r="R29" t="n">
-        <v>7046965</v>
+        <v>7046684</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4009,24 +4004,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4037,23 +4022,48 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131067775</v>
+        <v>131067460</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4092,14 +4102,14 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466299</v>
+        <v>466264</v>
       </c>
       <c r="R30" t="n">
-        <v>7047010</v>
+        <v>7046965</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4129,14 +4139,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4147,43 +4167,23 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067465</v>
+        <v>131067767</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4216,20 +4216,20 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466152</v>
+        <v>466140</v>
       </c>
       <c r="R31" t="n">
-        <v>7046928</v>
+        <v>7046909</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4259,24 +4259,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Äldre och färska ringhack</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4287,26 +4277,46 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067820</v>
+        <v>131067465</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4314,45 +4324,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466201</v>
+        <v>466152</v>
       </c>
       <c r="R32" t="n">
-        <v>7046958</v>
+        <v>7046928</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4382,14 +4389,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Rikligt med garnlav här!</t>
+          <t>Äldre och färska ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4398,54 +4415,28 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067815</v>
+        <v>131067820</v>
       </c>
       <c r="B33" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4453,26 +4444,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4480,10 +4479,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466248</v>
+        <v>466201</v>
       </c>
       <c r="R33" t="n">
-        <v>7046866</v>
+        <v>7046958</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4518,6 +4517,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlav här!</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4543,9 +4547,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4563,10 +4572,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067767</v>
+        <v>131067815</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4574,29 +4583,24 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -4606,10 +4610,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466140</v>
+        <v>466248</v>
       </c>
       <c r="R34" t="n">
-        <v>7046909</v>
+        <v>7046866</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4644,38 +4648,34 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på tall.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131067462</v>
+        <v>131067455</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4728,10 +4728,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>466212</v>
+        <v>466247</v>
       </c>
       <c r="R35" t="n">
-        <v>7046990</v>
+        <v>7046669</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4800,7 +4800,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131067455</v>
+        <v>131067823</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4829,16 +4829,19 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>466247</v>
+        <v>466269</v>
       </c>
       <c r="R36" t="n">
-        <v>7046669</v>
+        <v>7046701</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4868,49 +4871,45 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>10:26</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>10:26</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067776</v>
+        <v>131067462</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4918,42 +4917,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466296</v>
+        <v>466212</v>
       </c>
       <c r="R37" t="n">
-        <v>7046956</v>
+        <v>7046990</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4983,14 +4974,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5001,36 +4997,16 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -5297,10 +5273,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067823</v>
+        <v>131067466</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5308,37 +5284,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466269</v>
+        <v>465976</v>
       </c>
       <c r="R40" t="n">
-        <v>7046701</v>
+        <v>7046933</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5368,42 +5349,51 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131067466</v>
+        <v>131067776</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -5442,14 +5432,14 @@
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>465976</v>
+        <v>466296</v>
       </c>
       <c r="R41" t="n">
-        <v>7046933</v>
+        <v>7046956</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5479,24 +5469,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5507,16 +5487,36 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131067471</v>
+        <v>131067468</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5693,10 +5693,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>465684</v>
+        <v>465833</v>
       </c>
       <c r="R43" t="n">
-        <v>7046838</v>
+        <v>7046793</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5765,7 +5765,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131067468</v>
+        <v>131067471</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>465833</v>
+        <v>465684</v>
       </c>
       <c r="R44" t="n">
-        <v>7046793</v>
+        <v>7046838</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6240,10 +6240,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131067458</v>
+        <v>131067824</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6251,42 +6251,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>466199</v>
+        <v>466223</v>
       </c>
       <c r="R48" t="n">
-        <v>7046831</v>
+        <v>7046669</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6316,54 +6311,45 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Ringhack, färska</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131067824</v>
+        <v>131067458</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6371,37 +6357,42 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>466223</v>
+        <v>466199</v>
       </c>
       <c r="R49" t="n">
-        <v>7046669</v>
+        <v>7046831</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6431,35 +6422,44 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Ringhack, färska</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131067013</v>
+        <v>131067004</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7003,26 +7003,31 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7030,10 +7035,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>465836</v>
+        <v>465997</v>
       </c>
       <c r="R54" t="n">
-        <v>7046836</v>
+        <v>7046830</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7070,7 +7075,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i en lucka.</t>
+          <t>Rejäla hackspår i en gran med sockel.</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7079,7 +7084,6 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7100,12 +7104,12 @@
       </c>
       <c r="AM54" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7123,10 +7127,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131067004</v>
+        <v>131067821</v>
       </c>
       <c r="B55" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7134,31 +7138,26 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7166,10 +7165,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>465997</v>
+        <v>466212</v>
       </c>
       <c r="R55" t="n">
-        <v>7046830</v>
+        <v>7046860</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7204,43 +7203,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Rejäla hackspår i en gran med sockel.</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7389,10 +7364,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131067764</v>
+        <v>131067013</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7400,54 +7375,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>par i lämplig häckbiotop</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>465732</v>
+        <v>465836</v>
       </c>
       <c r="R57" t="n">
-        <v>7046817</v>
+        <v>7046836</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7484,7 +7442,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Synobservation av 2 st individer, en hona och en hane, som födosökte i samma döda gran. Hanen födösökte även i en björk. Fyndplatsen finns i äldre skog med stående död ved i en volym som indikerar mycket högt livsmiljövärde för tretåig hackspett.</t>
+          <t>Långväxta bålar på gran i en lucka.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7493,6 +7451,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7501,9 +7460,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog med inslag av bl.a. björk.</t>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7642,10 +7616,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131067821</v>
+        <v>131067819</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7653,26 +7627,26 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7680,10 +7654,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>466212</v>
+        <v>466023</v>
       </c>
       <c r="R59" t="n">
-        <v>7046860</v>
+        <v>7046926</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7731,6 +7705,21 @@
       <c r="AH59" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7748,10 +7737,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131067771</v>
+        <v>131067016</v>
       </c>
       <c r="B60" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7759,42 +7748,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>466198</v>
+        <v>466002</v>
       </c>
       <c r="R60" t="n">
-        <v>7046862</v>
+        <v>7046855</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7831,7 +7812,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7842,26 +7823,6 @@
       </c>
       <c r="AG60" t="b">
         <v>0</v>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ60" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
@@ -7878,10 +7839,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131067819</v>
+        <v>131067771</v>
       </c>
       <c r="B61" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7889,24 +7850,29 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -7916,10 +7882,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>466023</v>
+        <v>466198</v>
       </c>
       <c r="R61" t="n">
-        <v>7046926</v>
+        <v>7046862</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7954,13 +7920,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7999,7 +7969,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131067016</v>
+        <v>131067021</v>
       </c>
       <c r="B62" t="n">
         <v>79243</v>
@@ -8028,16 +7998,19 @@
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>466002</v>
+        <v>466160</v>
       </c>
       <c r="R62" t="n">
-        <v>7046855</v>
+        <v>7046831</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8074,7 +8047,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8083,8 +8056,34 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
@@ -8203,10 +8202,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131067021</v>
+        <v>131067774</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8214,26 +8213,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8241,10 +8245,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>466160</v>
+        <v>466303</v>
       </c>
       <c r="R64" t="n">
-        <v>7046831</v>
+        <v>7047009</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8281,7 +8285,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8290,7 +8294,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8311,12 +8314,12 @@
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8334,7 +8337,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131067774</v>
+        <v>131067772</v>
       </c>
       <c r="B65" t="n">
         <v>57884</v>
@@ -8377,10 +8380,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>466303</v>
+        <v>466208</v>
       </c>
       <c r="R65" t="n">
-        <v>7047009</v>
+        <v>7046922</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8469,10 +8472,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131067772</v>
+        <v>131067817</v>
       </c>
       <c r="B66" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8480,29 +8483,24 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -8512,10 +8510,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>466208</v>
+        <v>465737</v>
       </c>
       <c r="R66" t="n">
-        <v>7046922</v>
+        <v>7046798</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8550,17 +8548,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på gran.</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -8579,14 +8573,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -8604,10 +8593,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131067817</v>
+        <v>131067026</v>
       </c>
       <c r="B67" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8615,26 +8604,26 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8642,10 +8631,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>465737</v>
+        <v>466116</v>
       </c>
       <c r="R67" t="n">
-        <v>7046798</v>
+        <v>7046744</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8680,6 +8669,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>På bark av tall i barrblandskog.</t>
+        </is>
+      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
@@ -8692,22 +8686,27 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8725,10 +8724,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131067026</v>
+        <v>131067807</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8736,26 +8735,31 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8763,10 +8767,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>466116</v>
+        <v>465804</v>
       </c>
       <c r="R68" t="n">
-        <v>7046744</v>
+        <v>7046812</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8803,7 +8807,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>På bark av tall i barrblandskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8812,33 +8816,32 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM68" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -8856,10 +8859,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131067758</v>
+        <v>131067780</v>
       </c>
       <c r="B69" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8867,28 +8870,29 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -8898,10 +8902,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>466220</v>
+        <v>466268</v>
       </c>
       <c r="R69" t="n">
-        <v>7046897</v>
+        <v>7046893</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8936,13 +8940,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8961,14 +8969,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8986,10 +8989,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131067780</v>
+        <v>131067758</v>
       </c>
       <c r="B70" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8997,29 +9000,28 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -9029,10 +9031,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>466268</v>
+        <v>466220</v>
       </c>
       <c r="R70" t="n">
-        <v>7046893</v>
+        <v>7046897</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9067,17 +9069,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -9096,9 +9094,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9116,10 +9119,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131067807</v>
+        <v>131067472</v>
       </c>
       <c r="B71" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9127,42 +9130,34 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>465804</v>
+        <v>465661</v>
       </c>
       <c r="R71" t="n">
-        <v>7046812</v>
+        <v>7046738</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9192,14 +9187,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9210,41 +9210,16 @@
       </c>
       <c r="AG71" t="b">
         <v>0</v>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ71" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK71" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM71" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO71" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
@@ -9513,10 +9488,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131066994</v>
+        <v>131067814</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9524,29 +9499,24 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -9556,10 +9526,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>466211</v>
+        <v>465657</v>
       </c>
       <c r="R74" t="n">
-        <v>7046715</v>
+        <v>7046731</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9594,17 +9564,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran med spår av kådaflöde som står på sluttningen av en mindre kulle.</t>
-        </is>
-      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9623,14 +9589,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9648,7 +9609,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131067018</v>
+        <v>131067822</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -9686,10 +9647,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>466067</v>
+        <v>466268</v>
       </c>
       <c r="R75" t="n">
-        <v>7046910</v>
+        <v>7046889</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9724,11 +9685,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>På flera granar i granskog.</t>
-        </is>
-      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
@@ -9742,26 +9698,6 @@
       <c r="AH75" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ75" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK75" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM75" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO75" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9779,7 +9715,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131067472</v>
+        <v>131067018</v>
       </c>
       <c r="B76" t="n">
         <v>79243</v>
@@ -9808,16 +9744,19 @@
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>465661</v>
+        <v>466067</v>
       </c>
       <c r="R76" t="n">
-        <v>7046738</v>
+        <v>7046910</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9847,19 +9786,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>15:28</t>
-        </is>
-      </c>
       <c r="AA76" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>15:28</t>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>På flera granar i granskog.</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9868,28 +9802,54 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
+      </c>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131067822</v>
+        <v>131066994</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -9897,26 +9857,31 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -9924,10 +9889,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>466268</v>
+        <v>466211</v>
       </c>
       <c r="R77" t="n">
-        <v>7046889</v>
+        <v>7046715</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9962,19 +9927,43 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, på stambasen av en gran med spår av kådaflöde som står på sluttningen av en mindre kulle.</t>
+        </is>
+      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -10122,10 +10111,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131067814</v>
+        <v>131067011</v>
       </c>
       <c r="B79" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -10133,26 +10122,26 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
@@ -10160,10 +10149,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>465657</v>
+        <v>465794</v>
       </c>
       <c r="R79" t="n">
-        <v>7046731</v>
+        <v>7046853</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10198,6 +10187,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>På flera granar i granskog.</t>
+        </is>
+      </c>
       <c r="AD79" t="b">
         <v>0</v>
       </c>
@@ -10223,9 +10217,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO79" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10243,10 +10242,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131067011</v>
+        <v>131066995</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -10254,26 +10253,31 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
@@ -10281,10 +10285,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>465794</v>
+        <v>466224</v>
       </c>
       <c r="R80" t="n">
-        <v>7046853</v>
+        <v>7046722</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10321,7 +10325,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>På flera granar i granskog.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran i granskog.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -10330,7 +10334,6 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -10351,12 +10354,12 @@
       </c>
       <c r="AM80" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -10374,10 +10377,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131066995</v>
+        <v>131067811</v>
       </c>
       <c r="B81" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10385,42 +10388,50 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>466224</v>
+        <v>465799</v>
       </c>
       <c r="R81" t="n">
-        <v>7046722</v>
+        <v>7046814</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10457,7 +10468,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran i granskog.</t>
+          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10472,26 +10483,6 @@
       <c r="AH81" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ81" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM81" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>
@@ -10509,10 +10500,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131067811</v>
+        <v>131067764</v>
       </c>
       <c r="B82" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -10520,21 +10511,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -10543,10 +10534,14 @@
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>par i lämplig häckbiotop</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10560,10 +10555,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>465799</v>
+        <v>465732</v>
       </c>
       <c r="R82" t="n">
-        <v>7046814</v>
+        <v>7046817</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10600,7 +10595,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>Synobservation av 2 st individer, en hona och en hane, som födosökte i samma döda gran. Hanen födösökte även i en björkhögstubbe. Fyndplatsen finns i äldre granskog med stående död ved i en volym som indikerar mycket högt livsmiljövärde för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10615,6 +10610,11 @@
       <c r="AH82" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog med inslag av bl.a. björk.</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr"/>

--- a/artfynd/A 41290-2025 artfynd.xlsx
+++ b/artfynd/A 41290-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131067813</v>
+        <v>131067818</v>
       </c>
       <c r="B2" t="n">
-        <v>57064</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,50 +691,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102612</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>465954</v>
+        <v>465908</v>
       </c>
       <c r="R2" t="n">
-        <v>7046648</v>
+        <v>7046627</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,23 +756,34 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 födosökande järpe i en björk.</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -803,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067818</v>
+        <v>131067813</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>57064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -814,37 +812,50 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>102612</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>465908</v>
+        <v>465954</v>
       </c>
       <c r="R3" t="n">
-        <v>7046627</v>
+        <v>7046648</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -879,34 +890,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 födosökande järpe i en björk.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131066988</v>
+        <v>131067469</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>57064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1880,16 +1880,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>102612</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1897,25 +1897,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>465681</v>
+        <v>465770</v>
       </c>
       <c r="R12" t="n">
-        <v>7046766</v>
+        <v>7046758</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1945,14 +1945,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka på stambasen av en gran i granskog.</t>
+          <t>Flög upp.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1963,48 +1973,23 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131066992</v>
+        <v>131066988</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -2037,7 +2022,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2047,10 +2032,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466171</v>
+        <v>465681</v>
       </c>
       <c r="R13" t="n">
-        <v>7046705</v>
+        <v>7046766</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2087,7 +2072,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på ca 2 meters höjd på en tall.</t>
+          <t>Ringhack, färska, enstaka på stambasen av en gran i granskog.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2101,17 +2086,17 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -2121,7 +2106,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2139,7 +2124,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131067808</v>
+        <v>131066992</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2182,10 +2167,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>465816</v>
+        <v>466171</v>
       </c>
       <c r="R14" t="n">
-        <v>7046818</v>
+        <v>7046705</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2222,7 +2207,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på ca 2 meters höjd på en tall.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2236,17 +2221,17 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -2256,7 +2241,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2274,10 +2259,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131067469</v>
+        <v>131067808</v>
       </c>
       <c r="B15" t="n">
-        <v>57064</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2285,16 +2270,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>102612</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2302,25 +2287,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>465770</v>
+        <v>465816</v>
       </c>
       <c r="R15" t="n">
-        <v>7046758</v>
+        <v>7046818</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2350,24 +2335,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Flög upp.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2378,16 +2353,41 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -3076,10 +3076,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131067457</v>
+        <v>131067765</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3087,34 +3087,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466188</v>
+        <v>466021</v>
       </c>
       <c r="R22" t="n">
-        <v>7046783</v>
+        <v>7046920</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3144,19 +3152,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>10:44</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>10:44</t>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3167,61 +3170,94 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067464</v>
+        <v>131067777</v>
       </c>
       <c r="B23" t="n">
-        <v>75221</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6428</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466197</v>
+        <v>466291</v>
       </c>
       <c r="R23" t="n">
-        <v>7046956</v>
+        <v>7046932</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3251,24 +3287,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Död sälg</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3279,23 +3305,43 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067014</v>
+        <v>131067457</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3324,19 +3370,16 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>465848</v>
+        <v>466188</v>
       </c>
       <c r="R24" t="n">
-        <v>7046818</v>
+        <v>7046783</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3366,14 +3409,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>På gran i granskog.</t>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3382,76 +3430,50 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131067467</v>
+        <v>131067464</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3461,10 +3483,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>465982</v>
+        <v>466197</v>
       </c>
       <c r="R25" t="n">
-        <v>7046926</v>
+        <v>7046956</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3496,7 +3518,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3506,7 +3528,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Död sälg</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3533,10 +3560,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131067765</v>
+        <v>131067014</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3544,31 +3571,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3576,10 +3598,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466021</v>
+        <v>465848</v>
       </c>
       <c r="R26" t="n">
-        <v>7046920</v>
+        <v>7046818</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3616,7 +3638,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3625,6 +3647,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3645,12 +3668,12 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3668,10 +3691,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131067777</v>
+        <v>131067467</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3679,42 +3702,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466291</v>
+        <v>465982</v>
       </c>
       <c r="R27" t="n">
-        <v>7046932</v>
+        <v>7046926</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3744,14 +3759,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3762,36 +3782,16 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131067472</v>
+        <v>131067024</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -9148,16 +9148,19 @@
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>465661</v>
+        <v>466097</v>
       </c>
       <c r="R71" t="n">
-        <v>7046738</v>
+        <v>7046728</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9187,19 +9190,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>15:28</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>15:28</t>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>På gran i barrblandskog.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9208,25 +9206,51 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
+      </c>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM71" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131067024</v>
+        <v>131067472</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -9255,19 +9279,16 @@
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>466097</v>
+        <v>465661</v>
       </c>
       <c r="R72" t="n">
-        <v>7046728</v>
+        <v>7046738</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9297,14 +9318,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>På gran i barrblandskog.</t>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9313,44 +9339,18 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
-      </c>
-      <c r="AH72" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM72" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>

--- a/artfynd/A 41290-2025 artfynd.xlsx
+++ b/artfynd/A 41290-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131067818</v>
+        <v>131067813</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>57064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,37 +691,50 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>102612</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>465908</v>
+        <v>465954</v>
       </c>
       <c r="R2" t="n">
-        <v>7046627</v>
+        <v>7046648</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,34 +769,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 födosökande järpe i en björk.</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -801,10 +803,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067813</v>
+        <v>131067818</v>
       </c>
       <c r="B3" t="n">
-        <v>57064</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,50 +814,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102612</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>465954</v>
+        <v>465908</v>
       </c>
       <c r="R3" t="n">
-        <v>7046648</v>
+        <v>7046627</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -890,23 +879,34 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 födosökande järpe i en björk.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067470</v>
+        <v>131066991</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1037,34 +1037,42 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>465713</v>
+        <v>466192</v>
       </c>
       <c r="R5" t="n">
-        <v>7046828</v>
+        <v>7046678</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1094,24 +1102,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Död gran</t>
+          <t>Ringhack, äldre, enstaka på en gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1122,23 +1120,48 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067023</v>
+        <v>131067470</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1167,19 +1190,16 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466072</v>
+        <v>465713</v>
       </c>
       <c r="R6" t="n">
-        <v>7046758</v>
+        <v>7046828</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1209,14 +1229,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Död gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1225,54 +1255,28 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066991</v>
+        <v>131067023</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,31 +1284,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1312,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466192</v>
+        <v>466072</v>
       </c>
       <c r="R7" t="n">
-        <v>7046678</v>
+        <v>7046758</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1351,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,12 +1360,13 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131067456</v>
+        <v>131067766</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2405,34 +2405,42 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466261</v>
+        <v>466011</v>
       </c>
       <c r="R16" t="n">
-        <v>7046745</v>
+        <v>7046933</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2462,19 +2470,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>10:34</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>10:34</t>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2485,73 +2488,86 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131067003</v>
+        <v>131067459</v>
       </c>
       <c r="B17" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466180</v>
+        <v>466261</v>
       </c>
       <c r="R17" t="n">
-        <v>7046822</v>
+        <v>7046954</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2581,14 +2597,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2599,31 +2620,26 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131067463</v>
+        <v>131067456</v>
       </c>
       <c r="B18" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2631,21 +2647,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2655,10 +2671,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466198</v>
+        <v>466261</v>
       </c>
       <c r="R18" t="n">
-        <v>7046954</v>
+        <v>7046745</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2690,7 +2706,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2700,12 +2716,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Sälg</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2732,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131067459</v>
+        <v>131067463</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2743,21 +2754,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2767,7 +2778,7 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466261</v>
+        <v>466198</v>
       </c>
       <c r="R19" t="n">
         <v>7046954</v>
@@ -2802,7 +2813,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2812,7 +2823,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2839,32 +2855,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131067766</v>
+        <v>131067003</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2872,20 +2888,24 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466011</v>
+        <v>466180</v>
       </c>
       <c r="R20" t="n">
-        <v>7046933</v>
+        <v>7046822</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2922,7 +2942,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2936,27 +2956,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131067025</v>
+        <v>131067457</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -3005,14 +3005,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466160</v>
+        <v>466188</v>
       </c>
       <c r="R21" t="n">
-        <v>7046687</v>
+        <v>7046783</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3042,14 +3042,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Enstaka på gran.</t>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3064,22 +3069,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131067765</v>
+        <v>131067025</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3087,42 +3092,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466021</v>
+        <v>466160</v>
       </c>
       <c r="R22" t="n">
-        <v>7046920</v>
+        <v>7046687</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3159,7 +3156,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3170,31 +3167,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3211,7 +3183,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067777</v>
+        <v>131067765</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -3244,7 +3216,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -3254,10 +3226,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466291</v>
+        <v>466021</v>
       </c>
       <c r="R23" t="n">
-        <v>7046932</v>
+        <v>7046920</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3294,7 +3266,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3321,9 +3293,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3341,32 +3318,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067457</v>
+        <v>131067464</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3376,10 +3353,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466188</v>
+        <v>466197</v>
       </c>
       <c r="R24" t="n">
-        <v>7046783</v>
+        <v>7046956</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3411,7 +3388,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3421,7 +3398,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Död sälg</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3448,45 +3430,53 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131067464</v>
+        <v>131067777</v>
       </c>
       <c r="B25" t="n">
-        <v>75221</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6428</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466197</v>
+        <v>466291</v>
       </c>
       <c r="R25" t="n">
-        <v>7046956</v>
+        <v>7046932</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3516,24 +3506,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Död sälg</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3544,16 +3524,36 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131066990</v>
+        <v>131067820</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3939,31 +3939,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3971,10 +3974,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466169</v>
+        <v>466201</v>
       </c>
       <c r="R29" t="n">
-        <v>7046684</v>
+        <v>7046958</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4011,7 +4014,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Rikligt med garnlav här!</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4020,6 +4023,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4040,12 +4044,12 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4063,7 +4067,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131067460</v>
+        <v>131066990</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4102,14 +4106,14 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466264</v>
+        <v>466169</v>
       </c>
       <c r="R30" t="n">
-        <v>7046965</v>
+        <v>7046684</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4139,24 +4143,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4167,23 +4161,48 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067767</v>
+        <v>131067460</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4222,14 +4241,14 @@
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466140</v>
+        <v>466264</v>
       </c>
       <c r="R31" t="n">
-        <v>7046909</v>
+        <v>7046965</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4259,14 +4278,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4277,43 +4306,23 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067465</v>
+        <v>131067767</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4346,20 +4355,20 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466152</v>
+        <v>466140</v>
       </c>
       <c r="R32" t="n">
-        <v>7046928</v>
+        <v>7046909</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4389,24 +4398,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Äldre och färska ringhack</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4417,26 +4416,46 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067820</v>
+        <v>131067465</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4444,45 +4463,42 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466201</v>
+        <v>466152</v>
       </c>
       <c r="R33" t="n">
-        <v>7046958</v>
+        <v>7046928</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4512,14 +4528,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Rikligt med garnlav här!</t>
+          <t>Äldre och färska ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4528,44 +4554,18 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131067823</v>
+        <v>131067462</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4829,19 +4829,16 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>466269</v>
+        <v>466212</v>
       </c>
       <c r="R36" t="n">
-        <v>7046701</v>
+        <v>7046990</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4871,45 +4868,49 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067462</v>
+        <v>131067778</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4917,34 +4918,42 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466212</v>
+        <v>466299</v>
       </c>
       <c r="R37" t="n">
-        <v>7046990</v>
+        <v>7046954</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4974,19 +4983,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>11:39</t>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4997,23 +5001,43 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067778</v>
+        <v>131067769</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5056,10 +5080,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466299</v>
+        <v>466118</v>
       </c>
       <c r="R38" t="n">
-        <v>7046954</v>
+        <v>7046899</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5143,7 +5167,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067769</v>
+        <v>131067466</v>
       </c>
       <c r="B39" t="n">
         <v>57884</v>
@@ -5182,14 +5206,14 @@
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466118</v>
+        <v>465976</v>
       </c>
       <c r="R39" t="n">
-        <v>7046899</v>
+        <v>7046933</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5219,14 +5243,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5237,43 +5271,23 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067466</v>
+        <v>131067776</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -5312,14 +5326,14 @@
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>465976</v>
+        <v>466296</v>
       </c>
       <c r="R40" t="n">
-        <v>7046933</v>
+        <v>7046956</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5349,24 +5363,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5377,26 +5381,46 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131067776</v>
+        <v>131067823</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5404,31 +5428,26 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5436,10 +5455,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>466296</v>
+        <v>466269</v>
       </c>
       <c r="R41" t="n">
-        <v>7046956</v>
+        <v>7046701</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5474,38 +5493,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD41" t="b">
         <v>0</v>
       </c>
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131067468</v>
+        <v>131067471</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5693,10 +5693,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>465833</v>
+        <v>465684</v>
       </c>
       <c r="R43" t="n">
-        <v>7046793</v>
+        <v>7046838</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5765,7 +5765,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131067471</v>
+        <v>131067468</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>465684</v>
+        <v>465833</v>
       </c>
       <c r="R44" t="n">
-        <v>7046838</v>
+        <v>7046793</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5872,10 +5872,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131067017</v>
+        <v>131067809</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5883,34 +5883,42 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>466015</v>
+        <v>466011</v>
       </c>
       <c r="R45" t="n">
-        <v>7046893</v>
+        <v>7046932</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5947,7 +5955,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5958,6 +5966,31 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -6105,10 +6138,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131067809</v>
+        <v>131067017</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6116,42 +6149,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>466011</v>
+        <v>466015</v>
       </c>
       <c r="R47" t="n">
-        <v>7046932</v>
+        <v>7046893</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6188,7 +6213,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6199,31 +6224,6 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6240,10 +6240,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131067824</v>
+        <v>131067458</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6251,37 +6251,42 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>466223</v>
+        <v>466199</v>
       </c>
       <c r="R48" t="n">
-        <v>7046669</v>
+        <v>7046831</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6311,45 +6316,54 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Ringhack, färska</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131067458</v>
+        <v>131067824</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6357,42 +6371,37 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>466199</v>
+        <v>466223</v>
       </c>
       <c r="R49" t="n">
-        <v>7046831</v>
+        <v>7046669</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6422,54 +6431,45 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Ringhack, färska</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131067022</v>
+        <v>131067770</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6477,26 +6477,31 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6504,10 +6509,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>466123</v>
+        <v>466195</v>
       </c>
       <c r="R50" t="n">
-        <v>7046774</v>
+        <v>7046876</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6544,7 +6549,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i  barrblandskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6553,13 +6558,12 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -6572,14 +6576,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6597,10 +6596,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131067770</v>
+        <v>131067022</v>
       </c>
       <c r="B51" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6608,31 +6607,26 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6640,10 +6634,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>466195</v>
+        <v>466123</v>
       </c>
       <c r="R51" t="n">
-        <v>7046876</v>
+        <v>7046774</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6680,7 +6674,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på gran i  barrblandskog.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6689,12 +6683,13 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ51" t="inlineStr">
@@ -6707,9 +6702,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131067004</v>
+        <v>131067816</v>
       </c>
       <c r="B54" t="n">
-        <v>57881</v>
+        <v>91828</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7003,29 +7003,24 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -7035,10 +7030,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>465997</v>
+        <v>466283</v>
       </c>
       <c r="R54" t="n">
-        <v>7046830</v>
+        <v>7046884</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7073,17 +7068,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Rejäla hackspår i en gran med sockel.</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7102,14 +7093,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7495,10 +7481,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131067816</v>
+        <v>131067004</v>
       </c>
       <c r="B58" t="n">
-        <v>91828</v>
+        <v>57881</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7506,24 +7492,29 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -7533,10 +7524,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>466283</v>
+        <v>465997</v>
       </c>
       <c r="R58" t="n">
-        <v>7046884</v>
+        <v>7046830</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7571,13 +7562,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Rejäla hackspår i en gran med sockel.</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7596,9 +7591,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7737,10 +7737,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131067016</v>
+        <v>131067771</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7748,34 +7748,42 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>466002</v>
+        <v>466198</v>
       </c>
       <c r="R60" t="n">
-        <v>7046855</v>
+        <v>7046862</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7812,7 +7820,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7823,6 +7831,26 @@
       </c>
       <c r="AG60" t="b">
         <v>0</v>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
@@ -7839,10 +7867,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131067771</v>
+        <v>131067016</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7850,42 +7878,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>466198</v>
+        <v>466002</v>
       </c>
       <c r="R61" t="n">
-        <v>7046862</v>
+        <v>7046855</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7922,7 +7942,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7933,26 +7953,6 @@
       </c>
       <c r="AG61" t="b">
         <v>0</v>
-      </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ61" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK61" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
@@ -8593,10 +8593,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131067026</v>
+        <v>131067758</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8604,26 +8604,30 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8631,10 +8635,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>466116</v>
+        <v>466220</v>
       </c>
       <c r="R67" t="n">
-        <v>7046744</v>
+        <v>7046897</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8669,11 +8673,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>På bark av tall i barrblandskog.</t>
-        </is>
-      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
@@ -8686,27 +8685,27 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Pinus sylvestris</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8989,10 +8988,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131067758</v>
+        <v>131067026</v>
       </c>
       <c r="B70" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9000,30 +8999,26 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9031,10 +9026,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>466220</v>
+        <v>466116</v>
       </c>
       <c r="R70" t="n">
-        <v>7046897</v>
+        <v>7046744</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9069,6 +9064,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>På bark av tall i barrblandskog.</t>
+        </is>
+      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
@@ -9081,27 +9081,27 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM70" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Bark on living woody plant # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131067024</v>
+        <v>131067814</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9130,26 +9130,26 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -9157,10 +9157,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>466097</v>
+        <v>465657</v>
       </c>
       <c r="R71" t="n">
-        <v>7046728</v>
+        <v>7046731</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9195,11 +9195,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>På gran i barrblandskog.</t>
-        </is>
-      </c>
       <c r="AD71" t="b">
         <v>0</v>
       </c>
@@ -9212,7 +9207,7 @@
       </c>
       <c r="AH71" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ71" t="inlineStr">
@@ -9225,14 +9220,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM71" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -9250,7 +9240,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131067472</v>
+        <v>131067024</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -9279,16 +9269,19 @@
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>465661</v>
+        <v>466097</v>
       </c>
       <c r="R72" t="n">
-        <v>7046738</v>
+        <v>7046728</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9318,19 +9311,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>15:28</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>15:28</t>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>På gran i barrblandskog.</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9339,18 +9327,44 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
+      </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
@@ -9488,10 +9502,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131067814</v>
+        <v>131066994</v>
       </c>
       <c r="B74" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9499,24 +9513,29 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -9526,10 +9545,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>465657</v>
+        <v>466211</v>
       </c>
       <c r="R74" t="n">
-        <v>7046731</v>
+        <v>7046715</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9564,13 +9583,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, på stambasen av en gran med spår av kådaflöde som står på sluttningen av en mindre kulle.</t>
+        </is>
+      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9589,9 +9612,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9609,10 +9637,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131067822</v>
+        <v>131067773</v>
       </c>
       <c r="B75" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -9620,26 +9648,31 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -9647,10 +9680,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>466268</v>
+        <v>466253</v>
       </c>
       <c r="R75" t="n">
-        <v>7046889</v>
+        <v>7046994</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9685,19 +9718,38 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
         <v>0</v>
       </c>
-      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
       <c r="AH75" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9846,10 +9898,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131066994</v>
+        <v>131067472</v>
       </c>
       <c r="B77" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -9857,42 +9909,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>466211</v>
+        <v>465661</v>
       </c>
       <c r="R77" t="n">
-        <v>7046715</v>
+        <v>7046738</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9922,14 +9966,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran med spår av kådaflöde som står på sluttningen av en mindre kulle.</t>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9940,51 +9989,26 @@
       </c>
       <c r="AG77" t="b">
         <v>0</v>
-      </c>
-      <c r="AH77" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM77" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO77" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131067773</v>
+        <v>131067822</v>
       </c>
       <c r="B78" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9992,31 +10016,26 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -10024,10 +10043,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>466253</v>
+        <v>466268</v>
       </c>
       <c r="R78" t="n">
-        <v>7046994</v>
+        <v>7046889</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -10062,38 +10081,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD78" t="b">
         <v>0</v>
       </c>
       <c r="AE78" t="b">
         <v>0</v>
       </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
       <c r="AH78" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ78" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK78" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO78" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -10111,10 +10111,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131067011</v>
+        <v>131067811</v>
       </c>
       <c r="B79" t="n">
-        <v>79243</v>
+        <v>58043</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -10122,37 +10122,50 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>465794</v>
+        <v>465799</v>
       </c>
       <c r="R79" t="n">
-        <v>7046853</v>
+        <v>7046814</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10189,7 +10202,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>På flera granar i granskog.</t>
+          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -10198,33 +10211,12 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AH79" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ79" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK79" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM79" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO79" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10377,10 +10369,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131067811</v>
+        <v>131067011</v>
       </c>
       <c r="B81" t="n">
-        <v>58043</v>
+        <v>79243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10388,50 +10380,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>465799</v>
+        <v>465794</v>
       </c>
       <c r="R81" t="n">
-        <v>7046814</v>
+        <v>7046853</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10468,7 +10447,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>På flera granar i granskog.</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10477,12 +10456,33 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
       <c r="AH81" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>

--- a/artfynd/A 41290-2025 artfynd.xlsx
+++ b/artfynd/A 41290-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131067813</v>
+        <v>131067818</v>
       </c>
       <c r="B2" t="n">
-        <v>57064</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,50 +691,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102612</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>465954</v>
+        <v>465908</v>
       </c>
       <c r="R2" t="n">
-        <v>7046648</v>
+        <v>7046627</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,23 +756,34 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 födosökande järpe i en björk.</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -803,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067818</v>
+        <v>131067813</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>57064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -814,37 +812,50 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>102612</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>465908</v>
+        <v>465954</v>
       </c>
       <c r="R3" t="n">
-        <v>7046627</v>
+        <v>7046648</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -879,34 +890,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 födosökande järpe i en björk.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131066991</v>
+        <v>131067470</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1037,42 +1037,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466192</v>
+        <v>465713</v>
       </c>
       <c r="R5" t="n">
-        <v>7046678</v>
+        <v>7046828</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,14 +1094,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran.</t>
+          <t>Död gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,48 +1122,23 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067470</v>
+        <v>131067023</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1190,16 +1167,19 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>465713</v>
+        <v>466072</v>
       </c>
       <c r="R6" t="n">
-        <v>7046828</v>
+        <v>7046758</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1229,24 +1209,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Död gran</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,28 +1225,54 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067023</v>
+        <v>131067779</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1284,26 +1280,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1311,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466072</v>
+        <v>466288</v>
       </c>
       <c r="R7" t="n">
-        <v>7046758</v>
+        <v>7046865</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1351,7 +1352,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,13 +1361,12 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1379,14 +1379,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1404,7 +1399,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131067779</v>
+        <v>131066991</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1447,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466288</v>
+        <v>466192</v>
       </c>
       <c r="R8" t="n">
-        <v>7046865</v>
+        <v>7046678</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,7 +1482,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, enstaka på en gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1514,9 +1509,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067469</v>
+        <v>131067808</v>
       </c>
       <c r="B12" t="n">
-        <v>57064</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1880,16 +1880,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>102612</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1897,25 +1897,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>465770</v>
+        <v>465816</v>
       </c>
       <c r="R12" t="n">
-        <v>7046758</v>
+        <v>7046818</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1945,24 +1945,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Flög upp.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1973,16 +1963,41 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2259,10 +2274,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131067808</v>
+        <v>131067469</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>57064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2270,16 +2285,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>102612</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2287,25 +2302,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>465816</v>
+        <v>465770</v>
       </c>
       <c r="R15" t="n">
-        <v>7046818</v>
+        <v>7046758</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2335,14 +2350,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Flög upp.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2353,73 +2378,48 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131067766</v>
+        <v>131067003</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2427,20 +2427,24 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466011</v>
+        <v>466180</v>
       </c>
       <c r="R16" t="n">
-        <v>7046933</v>
+        <v>7046822</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2477,7 +2481,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2491,27 +2495,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2855,32 +2839,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131067003</v>
+        <v>131067766</v>
       </c>
       <c r="B20" t="n">
-        <v>57073</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100138</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2888,24 +2872,20 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466180</v>
+        <v>466011</v>
       </c>
       <c r="R20" t="n">
-        <v>7046822</v>
+        <v>7046933</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2942,7 +2922,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2956,7 +2936,27 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131067457</v>
+        <v>131067025</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -3005,14 +3005,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466188</v>
+        <v>466160</v>
       </c>
       <c r="R21" t="n">
-        <v>7046783</v>
+        <v>7046687</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3042,19 +3042,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>10:44</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>10:44</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3069,19 +3064,19 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131067025</v>
+        <v>131067457</v>
       </c>
       <c r="B22" t="n">
         <v>79243</v>
@@ -3112,14 +3107,14 @@
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466160</v>
+        <v>466188</v>
       </c>
       <c r="R22" t="n">
-        <v>7046687</v>
+        <v>7046783</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3149,14 +3144,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Enstaka på gran.</t>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3171,65 +3171,57 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067765</v>
+        <v>131067464</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>75221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6428</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466021</v>
+        <v>466197</v>
       </c>
       <c r="R23" t="n">
-        <v>7046920</v>
+        <v>7046956</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3259,14 +3251,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
+          <t>Död sälg</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3277,86 +3279,64 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067464</v>
+        <v>131067014</v>
       </c>
       <c r="B24" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466197</v>
+        <v>465848</v>
       </c>
       <c r="R24" t="n">
-        <v>7046956</v>
+        <v>7046818</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3386,24 +3366,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Död sälg</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3412,28 +3382,54 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131067777</v>
+        <v>131067467</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3441,42 +3437,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466291</v>
+        <v>465982</v>
       </c>
       <c r="R25" t="n">
-        <v>7046932</v>
+        <v>7046926</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3506,14 +3494,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3524,46 +3517,26 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131067014</v>
+        <v>131067765</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3571,26 +3544,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3598,10 +3576,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>465848</v>
+        <v>466021</v>
       </c>
       <c r="R26" t="n">
-        <v>7046818</v>
+        <v>7046920</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3638,7 +3616,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>På gran i granskog.</t>
+          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3647,7 +3625,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3668,12 +3645,12 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3691,10 +3668,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131067467</v>
+        <v>131067777</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3702,34 +3679,42 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>465982</v>
+        <v>466291</v>
       </c>
       <c r="R27" t="n">
-        <v>7046926</v>
+        <v>7046932</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3759,19 +3744,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>14:07</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>14:07</t>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3782,26 +3762,46 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131067775</v>
+        <v>131067820</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3809,31 +3809,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3841,10 +3844,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466299</v>
+        <v>466201</v>
       </c>
       <c r="R28" t="n">
-        <v>7047010</v>
+        <v>7046958</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3881,7 +3884,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Rikligt med garnlav här!</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3890,6 +3893,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3908,9 +3912,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3928,10 +3937,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131067820</v>
+        <v>131067815</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3939,34 +3948,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3974,10 +3975,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466201</v>
+        <v>466248</v>
       </c>
       <c r="R29" t="n">
-        <v>7046958</v>
+        <v>7046866</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4012,11 +4013,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Rikligt med garnlav här!</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
@@ -4042,14 +4038,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4572,10 +4563,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067815</v>
+        <v>131067775</v>
       </c>
       <c r="B34" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4583,24 +4574,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -4610,10 +4606,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466248</v>
+        <v>466299</v>
       </c>
       <c r="R34" t="n">
-        <v>7046866</v>
+        <v>7047010</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4648,13 +4644,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131067455</v>
+        <v>131067778</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4704,34 +4704,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>466247</v>
+        <v>466299</v>
       </c>
       <c r="R35" t="n">
-        <v>7046669</v>
+        <v>7046954</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4761,19 +4769,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>10:26</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>10:26</t>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4784,26 +4787,46 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131067462</v>
+        <v>131067769</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4811,34 +4834,42 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>466212</v>
+        <v>466118</v>
       </c>
       <c r="R36" t="n">
-        <v>7046990</v>
+        <v>7046899</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4868,19 +4899,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>11:39</t>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4891,23 +4917,43 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067778</v>
+        <v>131067776</v>
       </c>
       <c r="B37" t="n">
         <v>57884</v>
@@ -4950,10 +4996,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466299</v>
+        <v>466296</v>
       </c>
       <c r="R37" t="n">
-        <v>7046954</v>
+        <v>7046956</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5037,10 +5083,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067769</v>
+        <v>131067455</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5048,42 +5094,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466118</v>
+        <v>466247</v>
       </c>
       <c r="R38" t="n">
-        <v>7046899</v>
+        <v>7046669</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5113,14 +5151,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5131,46 +5174,26 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067466</v>
+        <v>131067823</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5178,42 +5201,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>465976</v>
+        <v>466269</v>
       </c>
       <c r="R39" t="n">
-        <v>7046933</v>
+        <v>7046701</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5243,54 +5261,45 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067776</v>
+        <v>131067462</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5298,42 +5307,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466296</v>
+        <v>466212</v>
       </c>
       <c r="R40" t="n">
-        <v>7046956</v>
+        <v>7046990</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5363,14 +5364,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5381,46 +5387,26 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131067823</v>
+        <v>131067466</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5428,37 +5414,42 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>466269</v>
+        <v>465976</v>
       </c>
       <c r="R41" t="n">
-        <v>7046701</v>
+        <v>7046933</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5488,35 +5479,44 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
+        </is>
+      </c>
       <c r="AD41" t="b">
         <v>0</v>
       </c>
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131067471</v>
+        <v>131067468</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5693,10 +5693,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>465684</v>
+        <v>465833</v>
       </c>
       <c r="R43" t="n">
-        <v>7046838</v>
+        <v>7046793</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5765,7 +5765,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131067468</v>
+        <v>131067471</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>465833</v>
+        <v>465684</v>
       </c>
       <c r="R44" t="n">
-        <v>7046793</v>
+        <v>7046838</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5872,10 +5872,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131067809</v>
+        <v>131067017</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5883,42 +5883,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>466011</v>
+        <v>466015</v>
       </c>
       <c r="R45" t="n">
-        <v>7046932</v>
+        <v>7046893</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5955,7 +5947,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5966,31 +5958,6 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -6138,10 +6105,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131067017</v>
+        <v>131067809</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6149,34 +6116,42 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>466015</v>
+        <v>466011</v>
       </c>
       <c r="R47" t="n">
-        <v>7046893</v>
+        <v>7046932</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6213,7 +6188,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6224,6 +6199,31 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6240,10 +6240,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131067458</v>
+        <v>131067824</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6251,42 +6251,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>466199</v>
+        <v>466223</v>
       </c>
       <c r="R48" t="n">
-        <v>7046831</v>
+        <v>7046669</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6316,54 +6311,45 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Ringhack, färska</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131067824</v>
+        <v>131067458</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6371,37 +6357,42 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>466223</v>
+        <v>466199</v>
       </c>
       <c r="R49" t="n">
-        <v>7046669</v>
+        <v>7046831</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6431,45 +6422,54 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Ringhack, färska</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131067770</v>
+        <v>131067022</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6477,31 +6477,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6509,10 +6504,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>466195</v>
+        <v>466123</v>
       </c>
       <c r="R50" t="n">
-        <v>7046876</v>
+        <v>7046774</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6549,7 +6544,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på gran i  barrblandskog.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6558,12 +6553,13 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -6576,9 +6572,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6596,10 +6597,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131067022</v>
+        <v>131067770</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6607,26 +6608,31 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6634,10 +6640,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>466123</v>
+        <v>466195</v>
       </c>
       <c r="R51" t="n">
-        <v>7046774</v>
+        <v>7046876</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6674,7 +6680,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i  barrblandskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6683,13 +6689,12 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ51" t="inlineStr">
@@ -6702,14 +6707,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131067816</v>
+        <v>131067821</v>
       </c>
       <c r="B54" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7003,26 +7003,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7030,10 +7030,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>466283</v>
+        <v>466212</v>
       </c>
       <c r="R54" t="n">
-        <v>7046884</v>
+        <v>7046860</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7081,21 +7081,6 @@
       <c r="AH54" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7113,7 +7098,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131067821</v>
+        <v>131067019</v>
       </c>
       <c r="B55" t="n">
         <v>79243</v>
@@ -7151,10 +7136,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>466212</v>
+        <v>466214</v>
       </c>
       <c r="R55" t="n">
-        <v>7046860</v>
+        <v>7046881</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7189,6 +7174,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -7202,6 +7192,26 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7219,7 +7229,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131067019</v>
+        <v>131067013</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -7257,10 +7267,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>466214</v>
+        <v>465836</v>
       </c>
       <c r="R56" t="n">
-        <v>7046881</v>
+        <v>7046836</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7297,7 +7307,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Långväxta bålar på gran i en lucka.</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7350,10 +7360,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131067013</v>
+        <v>131067816</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7361,26 +7371,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7388,10 +7398,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>465836</v>
+        <v>466283</v>
       </c>
       <c r="R57" t="n">
-        <v>7046836</v>
+        <v>7046884</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7426,11 +7436,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran i en lucka.</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -7456,14 +7461,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7737,10 +7737,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131067771</v>
+        <v>131067016</v>
       </c>
       <c r="B60" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7748,42 +7748,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>466198</v>
+        <v>466002</v>
       </c>
       <c r="R60" t="n">
-        <v>7046862</v>
+        <v>7046855</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7820,7 +7812,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7831,26 +7823,6 @@
       </c>
       <c r="AG60" t="b">
         <v>0</v>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ60" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
@@ -7867,10 +7839,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131067016</v>
+        <v>131067771</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7878,34 +7850,42 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>466002</v>
+        <v>466198</v>
       </c>
       <c r="R61" t="n">
-        <v>7046855</v>
+        <v>7046862</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7942,7 +7922,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7953,6 +7933,26 @@
       </c>
       <c r="AG61" t="b">
         <v>0</v>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
@@ -8593,10 +8593,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131067758</v>
+        <v>131067026</v>
       </c>
       <c r="B67" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8604,30 +8604,26 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8635,10 +8631,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>466220</v>
+        <v>466116</v>
       </c>
       <c r="R67" t="n">
-        <v>7046897</v>
+        <v>7046744</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8673,6 +8669,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>På bark av tall i barrblandskog.</t>
+        </is>
+      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
@@ -8685,27 +8686,27 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Bark on living woody plant # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8723,10 +8724,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131067807</v>
+        <v>131067758</v>
       </c>
       <c r="B68" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8734,29 +8735,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -8766,10 +8766,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>465804</v>
+        <v>466220</v>
       </c>
       <c r="R68" t="n">
-        <v>7046812</v>
+        <v>7046897</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8804,17 +8804,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD68" t="b">
         <v>0</v>
       </c>
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8835,12 +8831,12 @@
       </c>
       <c r="AM68" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -8858,7 +8854,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131067780</v>
+        <v>131067807</v>
       </c>
       <c r="B69" t="n">
         <v>57884</v>
@@ -8901,10 +8897,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>466268</v>
+        <v>465804</v>
       </c>
       <c r="R69" t="n">
-        <v>7046893</v>
+        <v>7046812</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8968,9 +8964,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM69" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8988,10 +8989,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131067026</v>
+        <v>131067780</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8999,26 +9000,31 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9026,10 +9032,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>466116</v>
+        <v>466268</v>
       </c>
       <c r="R70" t="n">
-        <v>7046744</v>
+        <v>7046893</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9066,7 +9072,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>På bark av tall i barrblandskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -9075,33 +9081,27 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
-      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM70" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131067814</v>
+        <v>131067472</v>
       </c>
       <c r="B71" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9130,37 +9130,34 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>465657</v>
+        <v>465661</v>
       </c>
       <c r="R71" t="n">
-        <v>7046731</v>
+        <v>7046738</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9190,50 +9187,39 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
       <c r="AD71" t="b">
         <v>0</v>
       </c>
       <c r="AE71" t="b">
         <v>0</v>
       </c>
-      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ71" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK71" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO71" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
@@ -9502,10 +9488,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131066994</v>
+        <v>131067814</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9513,29 +9499,24 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -9545,10 +9526,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>466211</v>
+        <v>465657</v>
       </c>
       <c r="R74" t="n">
-        <v>7046715</v>
+        <v>7046731</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9583,17 +9564,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran med spår av kådaflöde som står på sluttningen av en mindre kulle.</t>
-        </is>
-      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9612,14 +9589,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9637,10 +9609,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131067773</v>
+        <v>131067822</v>
       </c>
       <c r="B75" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -9648,31 +9620,26 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -9680,10 +9647,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>466253</v>
+        <v>466268</v>
       </c>
       <c r="R75" t="n">
-        <v>7046994</v>
+        <v>7046889</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9718,38 +9685,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
       <c r="AH75" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ75" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK75" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO75" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9898,10 +9846,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131067472</v>
+        <v>131066994</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -9909,34 +9857,42 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>465661</v>
+        <v>466211</v>
       </c>
       <c r="R77" t="n">
-        <v>7046738</v>
+        <v>7046715</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9966,19 +9922,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>15:28</t>
-        </is>
-      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>15:28</t>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, på stambasen av en gran med spår av kådaflöde som står på sluttningen av en mindre kulle.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9989,26 +9940,51 @@
       </c>
       <c r="AG77" t="b">
         <v>0</v>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131067822</v>
+        <v>131067773</v>
       </c>
       <c r="B78" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -10016,26 +9992,31 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -10043,10 +10024,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>466268</v>
+        <v>466253</v>
       </c>
       <c r="R78" t="n">
-        <v>7046889</v>
+        <v>7046994</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -10081,19 +10062,38 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD78" t="b">
         <v>0</v>
       </c>
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
       <c r="AH78" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -10111,10 +10111,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131067811</v>
+        <v>131067011</v>
       </c>
       <c r="B79" t="n">
-        <v>58043</v>
+        <v>79243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -10122,50 +10122,37 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>465799</v>
+        <v>465794</v>
       </c>
       <c r="R79" t="n">
-        <v>7046814</v>
+        <v>7046853</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10202,7 +10189,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>På flera granar i granskog.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -10211,12 +10198,33 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AH79" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10369,10 +10377,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131067011</v>
+        <v>131067811</v>
       </c>
       <c r="B81" t="n">
-        <v>79243</v>
+        <v>58043</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10380,37 +10388,50 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>465794</v>
+        <v>465799</v>
       </c>
       <c r="R81" t="n">
-        <v>7046853</v>
+        <v>7046814</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10447,7 +10468,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>På flera granar i granskog.</t>
+          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10456,33 +10477,12 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
       <c r="AH81" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ81" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM81" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>

--- a/artfynd/A 41290-2025 artfynd.xlsx
+++ b/artfynd/A 41290-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131067818</v>
+        <v>131067813</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>57064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,37 +691,50 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>102612</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>465908</v>
+        <v>465954</v>
       </c>
       <c r="R2" t="n">
-        <v>7046627</v>
+        <v>7046648</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,34 +769,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 födosökande järpe i en björk.</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -801,10 +803,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067813</v>
+        <v>131067818</v>
       </c>
       <c r="B3" t="n">
-        <v>57064</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,50 +814,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102612</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>465954</v>
+        <v>465908</v>
       </c>
       <c r="R3" t="n">
-        <v>7046648</v>
+        <v>7046627</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -890,23 +879,34 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 födosökande järpe i en björk.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131067020</v>
+        <v>131066991</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -935,34 +935,42 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466180</v>
+        <v>466192</v>
       </c>
       <c r="R4" t="n">
-        <v>7046800</v>
+        <v>7046678</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,7 +1007,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Ringhack, äldre, enstaka på en gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1010,6 +1018,31 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1026,7 +1059,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067470</v>
+        <v>131067020</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1057,14 +1090,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>465713</v>
+        <v>466180</v>
       </c>
       <c r="R5" t="n">
-        <v>7046828</v>
+        <v>7046800</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1094,24 +1127,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Död gran</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1126,19 +1149,19 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067023</v>
+        <v>131067470</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1167,19 +1190,16 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466072</v>
+        <v>465713</v>
       </c>
       <c r="R6" t="n">
-        <v>7046758</v>
+        <v>7046828</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1209,14 +1229,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Död gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1225,54 +1255,28 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067779</v>
+        <v>131067023</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,31 +1284,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1312,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466288</v>
+        <v>466072</v>
       </c>
       <c r="R7" t="n">
-        <v>7046865</v>
+        <v>7046758</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1351,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,12 +1360,13 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1379,9 +1379,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1399,7 +1404,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066991</v>
+        <v>131067779</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1442,10 +1447,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466192</v>
+        <v>466288</v>
       </c>
       <c r="R8" t="n">
-        <v>7046678</v>
+        <v>7046865</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,7 +1487,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1509,14 +1514,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131067028</v>
+        <v>131067812</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1545,34 +1545,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466204</v>
+        <v>466199</v>
       </c>
       <c r="R9" t="n">
-        <v>7046724</v>
+        <v>7046948</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1609,7 +1612,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Skrovellav på gran!</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1618,8 +1621,34 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1636,7 +1665,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067027</v>
+        <v>131067028</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1671,10 +1700,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466140</v>
+        <v>466204</v>
       </c>
       <c r="R10" t="n">
-        <v>7046777</v>
+        <v>7046724</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1738,10 +1767,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067812</v>
+        <v>131067027</v>
       </c>
       <c r="B11" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1749,37 +1778,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466199</v>
+        <v>466140</v>
       </c>
       <c r="R11" t="n">
-        <v>7046948</v>
+        <v>7046777</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1816,7 +1842,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Skrovellav på gran!</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,34 +1851,8 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1869,10 +1869,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067808</v>
+        <v>131067469</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>57064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1880,16 +1880,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>102612</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1897,25 +1897,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>465816</v>
+        <v>465770</v>
       </c>
       <c r="R12" t="n">
-        <v>7046818</v>
+        <v>7046758</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1945,14 +1945,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Flög upp.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1963,41 +1973,16 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2274,10 +2259,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131067469</v>
+        <v>131067808</v>
       </c>
       <c r="B15" t="n">
-        <v>57064</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2285,16 +2270,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>102612</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2302,25 +2287,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>465770</v>
+        <v>465816</v>
       </c>
       <c r="R15" t="n">
-        <v>7046758</v>
+        <v>7046818</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2350,24 +2335,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Flög upp.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2378,73 +2353,86 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131067003</v>
+        <v>131067463</v>
       </c>
       <c r="B16" t="n">
-        <v>57073</v>
+        <v>80349</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100138</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466180</v>
+        <v>466198</v>
       </c>
       <c r="R16" t="n">
-        <v>7046822</v>
+        <v>7046954</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2474,14 +2462,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2492,21 +2490,16 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -2727,45 +2720,57 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131067463</v>
+        <v>131067003</v>
       </c>
       <c r="B19" t="n">
-        <v>80349</v>
+        <v>57073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>100138</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466198</v>
+        <v>466180</v>
       </c>
       <c r="R19" t="n">
-        <v>7046954</v>
+        <v>7046822</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2795,24 +2800,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2823,16 +2818,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
@@ -2974,10 +2974,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131067025</v>
+        <v>131067765</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2985,34 +2985,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466160</v>
+        <v>466021</v>
       </c>
       <c r="R21" t="n">
-        <v>7046687</v>
+        <v>7046920</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3049,7 +3057,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3060,6 +3068,31 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3076,10 +3109,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131067457</v>
+        <v>131067777</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3087,34 +3120,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466188</v>
+        <v>466291</v>
       </c>
       <c r="R22" t="n">
-        <v>7046783</v>
+        <v>7046932</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3144,19 +3185,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>10:44</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>10:44</t>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3167,61 +3203,81 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067464</v>
+        <v>131067025</v>
       </c>
       <c r="B23" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466197</v>
+        <v>466160</v>
       </c>
       <c r="R23" t="n">
-        <v>7046956</v>
+        <v>7046687</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3251,24 +3307,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Död sälg</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3283,19 +3329,19 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067014</v>
+        <v>131067457</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3324,19 +3370,16 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>465848</v>
+        <v>466188</v>
       </c>
       <c r="R24" t="n">
-        <v>7046818</v>
+        <v>7046783</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3366,14 +3409,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>På gran i granskog.</t>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3382,76 +3430,50 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131067467</v>
+        <v>131067464</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3461,10 +3483,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>465982</v>
+        <v>466197</v>
       </c>
       <c r="R25" t="n">
-        <v>7046926</v>
+        <v>7046956</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3496,7 +3518,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3506,7 +3528,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Död sälg</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3533,10 +3560,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131067765</v>
+        <v>131067014</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3544,31 +3571,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3576,10 +3598,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466021</v>
+        <v>465848</v>
       </c>
       <c r="R26" t="n">
-        <v>7046920</v>
+        <v>7046818</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3616,7 +3638,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3625,6 +3647,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3645,12 +3668,12 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3668,10 +3691,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131067777</v>
+        <v>131067467</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3679,42 +3702,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466291</v>
+        <v>465982</v>
       </c>
       <c r="R27" t="n">
-        <v>7046932</v>
+        <v>7046926</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3744,14 +3759,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3762,46 +3782,26 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131067820</v>
+        <v>131067815</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3809,34 +3809,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3844,10 +3836,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466201</v>
+        <v>466248</v>
       </c>
       <c r="R28" t="n">
-        <v>7046958</v>
+        <v>7046866</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3882,11 +3874,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Rikligt med garnlav här!</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -3912,14 +3899,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3937,10 +3919,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131067815</v>
+        <v>131067820</v>
       </c>
       <c r="B29" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3948,26 +3930,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3975,10 +3965,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466248</v>
+        <v>466201</v>
       </c>
       <c r="R29" t="n">
-        <v>7046866</v>
+        <v>7046958</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4013,6 +4003,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlav här!</t>
+        </is>
+      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
@@ -4038,9 +4033,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131066990</v>
+        <v>131067465</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4091,20 +4091,20 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466169</v>
+        <v>466152</v>
       </c>
       <c r="R30" t="n">
-        <v>7046684</v>
+        <v>7046928</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4134,14 +4134,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Äldre och färska ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4152,48 +4162,23 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067460</v>
+        <v>131067775</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4232,14 +4217,14 @@
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466264</v>
+        <v>466299</v>
       </c>
       <c r="R31" t="n">
-        <v>7046965</v>
+        <v>7047010</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4269,24 +4254,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4297,23 +4272,43 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067767</v>
+        <v>131066990</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4356,10 +4351,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466140</v>
+        <v>466169</v>
       </c>
       <c r="R32" t="n">
-        <v>7046909</v>
+        <v>7046684</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4396,7 +4391,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4410,22 +4405,27 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067465</v>
+        <v>131067460</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4476,7 +4476,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466152</v>
+        <v>466264</v>
       </c>
       <c r="R33" t="n">
-        <v>7046928</v>
+        <v>7046965</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4531,12 +4531,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Äldre och färska ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4563,7 +4563,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067775</v>
+        <v>131067767</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466299</v>
+        <v>466140</v>
       </c>
       <c r="R34" t="n">
-        <v>7047010</v>
+        <v>7046909</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4660,22 +4660,22 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131067778</v>
+        <v>131067455</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4704,42 +4704,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>466299</v>
+        <v>466247</v>
       </c>
       <c r="R35" t="n">
-        <v>7046954</v>
+        <v>7046669</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4769,14 +4761,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4787,46 +4784,26 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131067769</v>
+        <v>131067823</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4834,31 +4811,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4866,10 +4838,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>466118</v>
+        <v>466269</v>
       </c>
       <c r="R36" t="n">
-        <v>7046899</v>
+        <v>7046701</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4904,38 +4876,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4953,10 +4906,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067776</v>
+        <v>131067462</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4964,42 +4917,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466296</v>
+        <v>466212</v>
       </c>
       <c r="R37" t="n">
-        <v>7046956</v>
+        <v>7046990</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5029,14 +4974,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5047,46 +4997,26 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067455</v>
+        <v>131067778</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5094,34 +5024,42 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466247</v>
+        <v>466299</v>
       </c>
       <c r="R38" t="n">
-        <v>7046669</v>
+        <v>7046954</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5151,19 +5089,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>10:26</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>10:26</t>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5174,26 +5107,46 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067823</v>
+        <v>131067769</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5201,26 +5154,31 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5228,10 +5186,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466269</v>
+        <v>466118</v>
       </c>
       <c r="R39" t="n">
-        <v>7046701</v>
+        <v>7046899</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5266,19 +5224,38 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5296,10 +5273,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067462</v>
+        <v>131067466</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5307,34 +5284,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466212</v>
+        <v>465976</v>
       </c>
       <c r="R40" t="n">
-        <v>7046990</v>
+        <v>7046933</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5366,7 +5351,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5376,7 +5361,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5403,7 +5393,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131067466</v>
+        <v>131067776</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -5442,14 +5432,14 @@
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>465976</v>
+        <v>466296</v>
       </c>
       <c r="R41" t="n">
-        <v>7046933</v>
+        <v>7046956</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5479,24 +5469,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5507,16 +5487,36 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131067468</v>
+        <v>131067010</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5669,34 +5669,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>465833</v>
+        <v>465776</v>
       </c>
       <c r="R43" t="n">
-        <v>7046793</v>
+        <v>7046851</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5726,19 +5729,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>14:48</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>14:48</t>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar i en stående döende gran med full längd.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5747,25 +5745,51 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131067471</v>
+        <v>131067468</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5800,10 +5824,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>465684</v>
+        <v>465833</v>
       </c>
       <c r="R44" t="n">
-        <v>7046838</v>
+        <v>7046793</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5835,7 +5859,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5845,7 +5869,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5872,7 +5896,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131067017</v>
+        <v>131067471</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5903,14 +5927,14 @@
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>466015</v>
+        <v>465684</v>
       </c>
       <c r="R45" t="n">
-        <v>7046893</v>
+        <v>7046838</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5940,14 +5964,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5962,22 +5991,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131067010</v>
+        <v>131067017</v>
       </c>
       <c r="B46" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5985,37 +6014,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>465776</v>
+        <v>466015</v>
       </c>
       <c r="R46" t="n">
-        <v>7046851</v>
+        <v>7046893</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6052,7 +6078,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran med full längd.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6061,34 +6087,8 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
@@ -6240,10 +6240,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131067824</v>
+        <v>131067458</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6251,37 +6251,42 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>466223</v>
+        <v>466199</v>
       </c>
       <c r="R48" t="n">
-        <v>7046669</v>
+        <v>7046831</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6311,45 +6316,54 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Ringhack, färska</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131067458</v>
+        <v>131067824</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6357,42 +6371,37 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>466199</v>
+        <v>466223</v>
       </c>
       <c r="R49" t="n">
-        <v>7046831</v>
+        <v>7046669</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6422,44 +6431,35 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Ringhack, färska</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131067821</v>
+        <v>131067816</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7003,26 +7003,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7030,10 +7030,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>466212</v>
+        <v>466283</v>
       </c>
       <c r="R54" t="n">
-        <v>7046860</v>
+        <v>7046884</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7081,6 +7081,21 @@
       <c r="AH54" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7098,7 +7113,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131067019</v>
+        <v>131067821</v>
       </c>
       <c r="B55" t="n">
         <v>79243</v>
@@ -7136,10 +7151,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>466214</v>
+        <v>466212</v>
       </c>
       <c r="R55" t="n">
-        <v>7046881</v>
+        <v>7046860</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7174,11 +7189,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -7192,26 +7202,6 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7229,7 +7219,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131067013</v>
+        <v>131067019</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -7267,10 +7257,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>465836</v>
+        <v>466214</v>
       </c>
       <c r="R56" t="n">
-        <v>7046836</v>
+        <v>7046881</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7307,7 +7297,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i en lucka.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7360,10 +7350,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131067816</v>
+        <v>131067013</v>
       </c>
       <c r="B57" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7371,26 +7361,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7398,10 +7388,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>466283</v>
+        <v>465836</v>
       </c>
       <c r="R57" t="n">
-        <v>7046884</v>
+        <v>7046836</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7436,6 +7426,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran i en lucka.</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -7461,9 +7456,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -8100,10 +8100,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131067015</v>
+        <v>131067774</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8111,34 +8111,42 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>465958</v>
+        <v>466303</v>
       </c>
       <c r="R63" t="n">
-        <v>7046711</v>
+        <v>7047009</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8175,7 +8183,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8186,6 +8194,31 @@
       </c>
       <c r="AG63" t="b">
         <v>0</v>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
@@ -8202,7 +8235,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131067774</v>
+        <v>131067772</v>
       </c>
       <c r="B64" t="n">
         <v>57884</v>
@@ -8245,10 +8278,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>466303</v>
+        <v>466208</v>
       </c>
       <c r="R64" t="n">
-        <v>7047009</v>
+        <v>7046922</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8337,10 +8370,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131067772</v>
+        <v>131067015</v>
       </c>
       <c r="B65" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8348,42 +8381,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>466208</v>
+        <v>465958</v>
       </c>
       <c r="R65" t="n">
-        <v>7046922</v>
+        <v>7046711</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8420,7 +8445,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8431,31 +8456,6 @@
       </c>
       <c r="AG65" t="b">
         <v>0</v>
-      </c>
-      <c r="AH65" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ65" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK65" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM65" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO65" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
@@ -9488,10 +9488,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131067814</v>
+        <v>131067822</v>
       </c>
       <c r="B74" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9499,26 +9499,26 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -9526,10 +9526,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>465657</v>
+        <v>466268</v>
       </c>
       <c r="R74" t="n">
-        <v>7046731</v>
+        <v>7046889</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9577,21 +9577,6 @@
       <c r="AH74" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ74" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK74" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO74" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9609,7 +9594,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131067822</v>
+        <v>131067018</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -9647,10 +9632,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>466268</v>
+        <v>466067</v>
       </c>
       <c r="R75" t="n">
-        <v>7046889</v>
+        <v>7046910</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9685,6 +9670,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>På flera granar i granskog.</t>
+        </is>
+      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
@@ -9698,6 +9688,26 @@
       <c r="AH75" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9715,10 +9725,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131067018</v>
+        <v>131067814</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9726,26 +9736,26 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9753,10 +9763,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>466067</v>
+        <v>465657</v>
       </c>
       <c r="R76" t="n">
-        <v>7046910</v>
+        <v>7046731</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9791,11 +9801,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På flera granar i granskog.</t>
-        </is>
-      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -9821,14 +9826,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10242,10 +10242,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131066995</v>
+        <v>131067811</v>
       </c>
       <c r="B80" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -10253,42 +10253,50 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>466224</v>
+        <v>465799</v>
       </c>
       <c r="R80" t="n">
-        <v>7046722</v>
+        <v>7046814</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10325,7 +10333,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran i granskog.</t>
+          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -10340,26 +10348,6 @@
       <c r="AH80" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ80" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK80" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM80" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO80" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -10377,10 +10365,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131067811</v>
+        <v>131066995</v>
       </c>
       <c r="B81" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10388,50 +10376,42 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>465799</v>
+        <v>466224</v>
       </c>
       <c r="R81" t="n">
-        <v>7046814</v>
+        <v>7046722</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10468,7 +10448,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran i granskog.</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10483,6 +10463,26 @@
       <c r="AH81" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>

--- a/artfynd/A 41290-2025 artfynd.xlsx
+++ b/artfynd/A 41290-2025 artfynd.xlsx
@@ -1059,10 +1059,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067020</v>
+        <v>131067779</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,34 +1070,42 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466180</v>
+        <v>466288</v>
       </c>
       <c r="R5" t="n">
-        <v>7046800</v>
+        <v>7046865</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1134,7 +1142,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1145,6 +1153,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1161,7 +1189,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067470</v>
+        <v>131067020</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1192,14 +1220,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>465713</v>
+        <v>466180</v>
       </c>
       <c r="R6" t="n">
-        <v>7046828</v>
+        <v>7046800</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1229,24 +1257,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Död gran</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1261,19 +1279,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067023</v>
+        <v>131067470</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1302,19 +1320,16 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466072</v>
+        <v>465713</v>
       </c>
       <c r="R7" t="n">
-        <v>7046758</v>
+        <v>7046828</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1344,14 +1359,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Död gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,54 +1385,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131067779</v>
+        <v>131067023</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1415,31 +1414,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1447,10 +1441,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466288</v>
+        <v>466072</v>
       </c>
       <c r="R8" t="n">
-        <v>7046865</v>
+        <v>7046758</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,7 +1481,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1496,12 +1490,13 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1514,9 +1509,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131067812</v>
+        <v>131067028</v>
       </c>
       <c r="B9" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1545,37 +1545,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466199</v>
+        <v>466204</v>
       </c>
       <c r="R9" t="n">
-        <v>7046948</v>
+        <v>7046724</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,7 +1609,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Skrovellav på gran!</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1621,34 +1618,8 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1665,7 +1636,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067028</v>
+        <v>131067027</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1700,10 +1671,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466204</v>
+        <v>466140</v>
       </c>
       <c r="R10" t="n">
-        <v>7046724</v>
+        <v>7046777</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1767,10 +1738,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067027</v>
+        <v>131067812</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1778,34 +1749,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466140</v>
+        <v>466199</v>
       </c>
       <c r="R11" t="n">
-        <v>7046777</v>
+        <v>7046948</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1842,7 +1816,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Skrovellav på gran!</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1851,8 +1825,34 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -2394,45 +2394,57 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131067463</v>
+        <v>131067003</v>
       </c>
       <c r="B16" t="n">
-        <v>80349</v>
+        <v>57073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>100138</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466198</v>
+        <v>466180</v>
       </c>
       <c r="R16" t="n">
-        <v>7046954</v>
+        <v>7046822</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2462,24 +2474,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2490,26 +2492,31 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131067459</v>
+        <v>131067463</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2517,21 +2524,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2541,7 +2548,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466261</v>
+        <v>466198</v>
       </c>
       <c r="R17" t="n">
         <v>7046954</v>
@@ -2576,7 +2583,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2586,7 +2593,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2613,10 +2625,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131067456</v>
+        <v>131067766</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2624,34 +2636,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466261</v>
+        <v>466011</v>
       </c>
       <c r="R18" t="n">
-        <v>7046745</v>
+        <v>7046933</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2681,19 +2701,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>10:34</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>10:34</t>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,73 +2719,86 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131067003</v>
+        <v>131067459</v>
       </c>
       <c r="B19" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466180</v>
+        <v>466261</v>
       </c>
       <c r="R19" t="n">
-        <v>7046822</v>
+        <v>7046954</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2800,14 +2828,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2818,31 +2851,26 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131067766</v>
+        <v>131067456</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2850,42 +2878,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466011</v>
+        <v>466261</v>
       </c>
       <c r="R20" t="n">
-        <v>7046933</v>
+        <v>7046745</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2915,14 +2935,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på gran.</t>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2933,51 +2958,26 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131067765</v>
+        <v>131067467</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2985,42 +2985,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466021</v>
+        <v>465982</v>
       </c>
       <c r="R21" t="n">
-        <v>7046920</v>
+        <v>7046926</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3050,14 +3042,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3068,51 +3065,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131067777</v>
+        <v>131067025</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3120,42 +3092,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466291</v>
+        <v>466160</v>
       </c>
       <c r="R22" t="n">
-        <v>7046932</v>
+        <v>7046687</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3192,7 +3156,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3203,26 +3167,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3239,7 +3183,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067025</v>
+        <v>131067457</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3270,14 +3214,14 @@
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466160</v>
+        <v>466188</v>
       </c>
       <c r="R23" t="n">
-        <v>7046687</v>
+        <v>7046783</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3307,14 +3251,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Enstaka på gran.</t>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3329,44 +3278,44 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067457</v>
+        <v>131067464</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3376,10 +3325,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466188</v>
+        <v>466197</v>
       </c>
       <c r="R24" t="n">
-        <v>7046783</v>
+        <v>7046956</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3411,7 +3360,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3421,7 +3370,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Död sälg</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3448,45 +3402,48 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131067464</v>
+        <v>131067014</v>
       </c>
       <c r="B25" t="n">
-        <v>75221</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466197</v>
+        <v>465848</v>
       </c>
       <c r="R25" t="n">
-        <v>7046956</v>
+        <v>7046818</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3516,24 +3473,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Död sälg</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3542,28 +3489,54 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131067014</v>
+        <v>131067765</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3571,26 +3544,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3598,10 +3576,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>465848</v>
+        <v>466021</v>
       </c>
       <c r="R26" t="n">
-        <v>7046818</v>
+        <v>7046920</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3638,7 +3616,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>På gran i granskog.</t>
+          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3647,7 +3625,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3668,12 +3645,12 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3691,10 +3668,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131067467</v>
+        <v>131067777</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3702,34 +3679,42 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>465982</v>
+        <v>466291</v>
       </c>
       <c r="R27" t="n">
-        <v>7046926</v>
+        <v>7046932</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3759,19 +3744,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>14:07</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>14:07</t>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3782,26 +3762,46 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131067815</v>
+        <v>131067820</v>
       </c>
       <c r="B28" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3809,26 +3809,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3836,10 +3844,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466248</v>
+        <v>466201</v>
       </c>
       <c r="R28" t="n">
-        <v>7046866</v>
+        <v>7046958</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3874,6 +3882,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlav här!</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -3899,9 +3912,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3919,10 +3937,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131067820</v>
+        <v>131067815</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3930,34 +3948,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3965,10 +3975,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466201</v>
+        <v>466248</v>
       </c>
       <c r="R29" t="n">
-        <v>7046958</v>
+        <v>7046866</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4003,11 +4013,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Rikligt med garnlav här!</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
@@ -4033,14 +4038,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131067465</v>
+        <v>131067775</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4091,20 +4091,20 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466152</v>
+        <v>466299</v>
       </c>
       <c r="R30" t="n">
-        <v>7046928</v>
+        <v>7047010</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4134,24 +4134,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Äldre och färska ringhack</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4162,23 +4152,43 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067775</v>
+        <v>131066990</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4221,10 +4231,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466299</v>
+        <v>466169</v>
       </c>
       <c r="R31" t="n">
-        <v>7047010</v>
+        <v>7046684</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4261,7 +4271,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4288,9 +4298,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4308,7 +4323,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131066990</v>
+        <v>131067460</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4347,14 +4362,14 @@
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466169</v>
+        <v>466264</v>
       </c>
       <c r="R32" t="n">
-        <v>7046684</v>
+        <v>7046965</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4384,14 +4399,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4402,48 +4427,23 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067460</v>
+        <v>131067767</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4482,14 +4482,14 @@
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466264</v>
+        <v>466140</v>
       </c>
       <c r="R33" t="n">
-        <v>7046965</v>
+        <v>7046909</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4519,24 +4519,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4547,23 +4537,43 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067767</v>
+        <v>131067465</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4596,20 +4606,20 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466140</v>
+        <v>466152</v>
       </c>
       <c r="R34" t="n">
-        <v>7046909</v>
+        <v>7046928</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4639,14 +4649,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>Äldre och färska ringhack</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4657,46 +4677,26 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131067455</v>
+        <v>131067778</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4704,34 +4704,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>466247</v>
+        <v>466299</v>
       </c>
       <c r="R35" t="n">
-        <v>7046669</v>
+        <v>7046954</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4761,19 +4769,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>10:26</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>10:26</t>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4784,26 +4787,46 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131067823</v>
+        <v>131067769</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4811,26 +4834,31 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4838,10 +4866,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>466269</v>
+        <v>466118</v>
       </c>
       <c r="R36" t="n">
-        <v>7046701</v>
+        <v>7046899</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4876,19 +4904,38 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4906,10 +4953,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067462</v>
+        <v>131067466</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4917,34 +4964,42 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466212</v>
+        <v>465976</v>
       </c>
       <c r="R37" t="n">
-        <v>7046990</v>
+        <v>7046933</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4976,7 +5031,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4986,7 +5041,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5013,7 +5073,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067778</v>
+        <v>131067776</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5056,10 +5116,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466299</v>
+        <v>466296</v>
       </c>
       <c r="R38" t="n">
-        <v>7046954</v>
+        <v>7046956</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5143,10 +5203,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067769</v>
+        <v>131067455</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5154,42 +5214,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466118</v>
+        <v>466247</v>
       </c>
       <c r="R39" t="n">
-        <v>7046899</v>
+        <v>7046669</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5219,14 +5271,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5237,46 +5294,26 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067466</v>
+        <v>131067823</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5284,42 +5321,37 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>465976</v>
+        <v>466269</v>
       </c>
       <c r="R40" t="n">
-        <v>7046933</v>
+        <v>7046701</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5349,54 +5381,45 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131067776</v>
+        <v>131067462</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5404,42 +5427,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>466296</v>
+        <v>466212</v>
       </c>
       <c r="R41" t="n">
-        <v>7046956</v>
+        <v>7046990</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5469,14 +5484,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5487,36 +5507,16 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131067010</v>
+        <v>131067809</v>
       </c>
       <c r="B43" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5669,24 +5669,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -5696,10 +5701,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>465776</v>
+        <v>466011</v>
       </c>
       <c r="R43" t="n">
-        <v>7046851</v>
+        <v>7046932</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5736,7 +5741,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran med full längd.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5745,7 +5750,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -6105,10 +6109,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131067809</v>
+        <v>131067010</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6116,29 +6120,24 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6148,10 +6147,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>466011</v>
+        <v>465776</v>
       </c>
       <c r="R47" t="n">
-        <v>7046932</v>
+        <v>7046851</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6188,7 +6187,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Flera fruktkroppar i en stående döende gran med full längd.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6197,6 +6196,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131067816</v>
+        <v>131067004</v>
       </c>
       <c r="B54" t="n">
-        <v>91828</v>
+        <v>57881</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7003,24 +7003,29 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -7030,10 +7035,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>466283</v>
+        <v>465997</v>
       </c>
       <c r="R54" t="n">
-        <v>7046884</v>
+        <v>7046830</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7068,13 +7073,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Rejäla hackspår i en gran med sockel.</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7093,9 +7102,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7481,10 +7495,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131067004</v>
+        <v>131067816</v>
       </c>
       <c r="B58" t="n">
-        <v>57881</v>
+        <v>91828</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7492,29 +7506,24 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -7524,10 +7533,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>465997</v>
+        <v>466283</v>
       </c>
       <c r="R58" t="n">
-        <v>7046830</v>
+        <v>7046884</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7562,17 +7571,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Rejäla hackspår i en gran med sockel.</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7591,14 +7596,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8100,10 +8100,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131067774</v>
+        <v>131067015</v>
       </c>
       <c r="B63" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8111,42 +8111,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>466303</v>
+        <v>465958</v>
       </c>
       <c r="R63" t="n">
-        <v>7047009</v>
+        <v>7046711</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8183,7 +8175,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8194,31 +8186,6 @@
       </c>
       <c r="AG63" t="b">
         <v>0</v>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ63" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK63" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM63" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO63" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
@@ -8235,7 +8202,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131067772</v>
+        <v>131067774</v>
       </c>
       <c r="B64" t="n">
         <v>57884</v>
@@ -8278,10 +8245,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>466208</v>
+        <v>466303</v>
       </c>
       <c r="R64" t="n">
-        <v>7046922</v>
+        <v>7047009</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8370,10 +8337,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131067015</v>
+        <v>131067772</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8381,34 +8348,42 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>465958</v>
+        <v>466208</v>
       </c>
       <c r="R65" t="n">
-        <v>7046711</v>
+        <v>7046922</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8445,7 +8420,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8456,6 +8431,31 @@
       </c>
       <c r="AG65" t="b">
         <v>0</v>
+      </c>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM65" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
@@ -8593,10 +8593,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131067026</v>
+        <v>131067807</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8604,26 +8604,31 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8631,10 +8636,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>466116</v>
+        <v>465804</v>
       </c>
       <c r="R67" t="n">
-        <v>7046744</v>
+        <v>7046812</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8671,7 +8676,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>På bark av tall i barrblandskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8680,33 +8685,32 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8724,10 +8728,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131067758</v>
+        <v>131067780</v>
       </c>
       <c r="B68" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8735,28 +8739,29 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -8766,10 +8771,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>466220</v>
+        <v>466268</v>
       </c>
       <c r="R68" t="n">
-        <v>7046897</v>
+        <v>7046893</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8804,13 +8809,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD68" t="b">
         <v>0</v>
       </c>
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8829,14 +8838,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM68" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -8854,10 +8858,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131067807</v>
+        <v>131067758</v>
       </c>
       <c r="B69" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8865,29 +8869,28 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -8897,10 +8900,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>465804</v>
+        <v>466220</v>
       </c>
       <c r="R69" t="n">
-        <v>7046812</v>
+        <v>7046897</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8935,17 +8938,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8966,12 +8965,12 @@
       </c>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8989,10 +8988,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131067780</v>
+        <v>131067026</v>
       </c>
       <c r="B70" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9000,31 +8999,26 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9032,10 +9026,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>466268</v>
+        <v>466116</v>
       </c>
       <c r="R70" t="n">
-        <v>7046893</v>
+        <v>7046744</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9072,7 +9066,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På bark av tall i barrblandskog.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -9081,27 +9075,33 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9488,10 +9488,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131067822</v>
+        <v>131067814</v>
       </c>
       <c r="B74" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9499,26 +9499,26 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -9526,10 +9526,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>466268</v>
+        <v>465657</v>
       </c>
       <c r="R74" t="n">
-        <v>7046889</v>
+        <v>7046731</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9577,6 +9577,21 @@
       <c r="AH74" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9594,7 +9609,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131067018</v>
+        <v>131067822</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -9632,10 +9647,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>466067</v>
+        <v>466268</v>
       </c>
       <c r="R75" t="n">
-        <v>7046910</v>
+        <v>7046889</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9670,11 +9685,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>På flera granar i granskog.</t>
-        </is>
-      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
@@ -9688,26 +9698,6 @@
       <c r="AH75" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ75" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK75" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM75" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO75" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9725,10 +9715,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131067814</v>
+        <v>131067018</v>
       </c>
       <c r="B76" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9736,26 +9726,26 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9763,10 +9753,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>465657</v>
+        <v>466067</v>
       </c>
       <c r="R76" t="n">
-        <v>7046731</v>
+        <v>7046910</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9801,6 +9791,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>På flera granar i granskog.</t>
+        </is>
+      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -9826,9 +9821,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10111,10 +10111,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131067011</v>
+        <v>131067811</v>
       </c>
       <c r="B79" t="n">
-        <v>79243</v>
+        <v>58043</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -10122,37 +10122,50 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>465794</v>
+        <v>465799</v>
       </c>
       <c r="R79" t="n">
-        <v>7046853</v>
+        <v>7046814</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10189,7 +10202,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>På flera granar i granskog.</t>
+          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -10198,33 +10211,12 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AH79" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ79" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK79" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM79" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO79" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10242,10 +10234,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131067811</v>
+        <v>131067011</v>
       </c>
       <c r="B80" t="n">
-        <v>58043</v>
+        <v>79243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -10253,50 +10245,37 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>465799</v>
+        <v>465794</v>
       </c>
       <c r="R80" t="n">
-        <v>7046814</v>
+        <v>7046853</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10333,7 +10312,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>På flera granar i granskog.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -10342,12 +10321,33 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
       <c r="AH80" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM80" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>

--- a/artfynd/A 41290-2025 artfynd.xlsx
+++ b/artfynd/A 41290-2025 artfynd.xlsx
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131066991</v>
+        <v>131067020</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -935,42 +935,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466192</v>
+        <v>466180</v>
       </c>
       <c r="R4" t="n">
-        <v>7046678</v>
+        <v>7046800</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1007,7 +999,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran.</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1018,31 +1010,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1059,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067779</v>
+        <v>131067470</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,42 +1037,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466288</v>
+        <v>465713</v>
       </c>
       <c r="R5" t="n">
-        <v>7046865</v>
+        <v>7046828</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1135,14 +1094,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Död gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1153,43 +1122,23 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067020</v>
+        <v>131067023</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1218,16 +1167,19 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466180</v>
+        <v>466072</v>
       </c>
       <c r="R6" t="n">
-        <v>7046800</v>
+        <v>7046758</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,7 +1216,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1273,8 +1225,34 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1291,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067470</v>
+        <v>131066991</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1302,34 +1280,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>465713</v>
+        <v>466192</v>
       </c>
       <c r="R7" t="n">
-        <v>7046828</v>
+        <v>7046678</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1359,24 +1345,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Död gran</t>
+          <t>Ringhack, äldre, enstaka på en gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1387,26 +1363,51 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131067023</v>
+        <v>131067779</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1414,26 +1415,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1441,10 +1447,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466072</v>
+        <v>466288</v>
       </c>
       <c r="R8" t="n">
-        <v>7046758</v>
+        <v>7046865</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1481,7 +1487,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1490,13 +1496,12 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1509,14 +1514,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131067028</v>
+        <v>131067812</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1545,34 +1545,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466204</v>
+        <v>466199</v>
       </c>
       <c r="R9" t="n">
-        <v>7046724</v>
+        <v>7046948</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1609,7 +1612,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Skrovellav på gran!</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1618,8 +1621,34 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1636,7 +1665,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067027</v>
+        <v>131067028</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1671,10 +1700,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466140</v>
+        <v>466204</v>
       </c>
       <c r="R10" t="n">
-        <v>7046777</v>
+        <v>7046724</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1738,10 +1767,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067812</v>
+        <v>131067027</v>
       </c>
       <c r="B11" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1749,37 +1778,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466199</v>
+        <v>466140</v>
       </c>
       <c r="R11" t="n">
-        <v>7046948</v>
+        <v>7046777</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1816,7 +1842,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Skrovellav på gran!</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,34 +1851,8 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -2394,57 +2394,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131067003</v>
+        <v>131067463</v>
       </c>
       <c r="B16" t="n">
-        <v>57073</v>
+        <v>80349</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100138</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466180</v>
+        <v>466198</v>
       </c>
       <c r="R16" t="n">
-        <v>7046822</v>
+        <v>7046954</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2474,14 +2462,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2492,31 +2490,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131067463</v>
+        <v>131067459</v>
       </c>
       <c r="B17" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2524,21 +2517,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2548,7 +2541,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466198</v>
+        <v>466261</v>
       </c>
       <c r="R17" t="n">
         <v>7046954</v>
@@ -2583,7 +2576,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2593,12 +2586,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Sälg</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2625,10 +2613,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131067766</v>
+        <v>131067456</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2636,42 +2624,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466011</v>
+        <v>466261</v>
       </c>
       <c r="R18" t="n">
-        <v>7046933</v>
+        <v>7046745</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2701,14 +2681,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på gran.</t>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2719,51 +2704,26 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131067459</v>
+        <v>131067766</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2771,34 +2731,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466261</v>
+        <v>466011</v>
       </c>
       <c r="R19" t="n">
-        <v>7046954</v>
+        <v>7046933</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2828,19 +2796,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>11:07</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>11:07</t>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2851,61 +2814,98 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131067456</v>
+        <v>131067003</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466261</v>
+        <v>466180</v>
       </c>
       <c r="R20" t="n">
-        <v>7046745</v>
+        <v>7046822</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2935,19 +2935,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>10:34</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>10:34</t>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2958,23 +2953,28 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131067467</v>
+        <v>131067025</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -3005,14 +3005,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>465982</v>
+        <v>466160</v>
       </c>
       <c r="R21" t="n">
-        <v>7046926</v>
+        <v>7046687</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3042,19 +3042,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>14:07</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>14:07</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3069,57 +3064,57 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131067025</v>
+        <v>131067464</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>75221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466160</v>
+        <v>466197</v>
       </c>
       <c r="R22" t="n">
-        <v>7046687</v>
+        <v>7046956</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3149,14 +3144,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Död sälg</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3171,19 +3176,19 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067457</v>
+        <v>131067014</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3212,16 +3217,19 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466188</v>
+        <v>465848</v>
       </c>
       <c r="R23" t="n">
-        <v>7046783</v>
+        <v>7046818</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3251,19 +3259,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>10:44</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>10:44</t>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3272,63 +3275,97 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067464</v>
+        <v>131067765</v>
       </c>
       <c r="B24" t="n">
-        <v>75221</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6428</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466197</v>
+        <v>466021</v>
       </c>
       <c r="R24" t="n">
-        <v>7046956</v>
+        <v>7046920</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3358,24 +3395,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Död sälg</t>
+          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3386,26 +3413,51 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131067014</v>
+        <v>131067777</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3413,26 +3465,31 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3440,10 +3497,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>465848</v>
+        <v>466291</v>
       </c>
       <c r="R25" t="n">
-        <v>7046818</v>
+        <v>7046932</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3480,7 +3537,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>På gran i granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3489,7 +3546,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3508,14 +3564,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3533,10 +3584,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131067765</v>
+        <v>131067457</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3544,42 +3595,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466021</v>
+        <v>466188</v>
       </c>
       <c r="R26" t="n">
-        <v>7046920</v>
+        <v>7046783</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3609,14 +3652,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3627,51 +3675,26 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131067777</v>
+        <v>131067467</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3679,42 +3702,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466291</v>
+        <v>465982</v>
       </c>
       <c r="R27" t="n">
-        <v>7046932</v>
+        <v>7046926</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3744,14 +3759,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3762,36 +3782,16 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -3937,10 +3937,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131067815</v>
+        <v>131067775</v>
       </c>
       <c r="B29" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3948,24 +3948,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3975,10 +3980,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466248</v>
+        <v>466299</v>
       </c>
       <c r="R29" t="n">
-        <v>7046866</v>
+        <v>7047010</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4013,13 +4018,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4058,7 +4067,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131067775</v>
+        <v>131066990</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4101,10 +4110,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466299</v>
+        <v>466169</v>
       </c>
       <c r="R30" t="n">
-        <v>7047010</v>
+        <v>7046684</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4141,7 +4150,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4168,9 +4177,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4188,7 +4202,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131066990</v>
+        <v>131067460</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4227,14 +4241,14 @@
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466169</v>
+        <v>466264</v>
       </c>
       <c r="R31" t="n">
-        <v>7046684</v>
+        <v>7046965</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4264,14 +4278,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4282,48 +4306,23 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067460</v>
+        <v>131067767</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4362,14 +4361,14 @@
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466264</v>
+        <v>466140</v>
       </c>
       <c r="R32" t="n">
-        <v>7046965</v>
+        <v>7046909</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4399,24 +4398,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4427,23 +4416,43 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067767</v>
+        <v>131067465</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4476,20 +4485,20 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466140</v>
+        <v>466152</v>
       </c>
       <c r="R33" t="n">
-        <v>7046909</v>
+        <v>7046928</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4519,14 +4528,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>Äldre och färska ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4537,46 +4556,26 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067465</v>
+        <v>131067815</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4584,42 +4583,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466152</v>
+        <v>466248</v>
       </c>
       <c r="R34" t="n">
-        <v>7046928</v>
+        <v>7046866</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4649,44 +4643,50 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Äldre och färska ringhack</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131067458</v>
+        <v>131067824</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6251,42 +6251,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>466199</v>
+        <v>466223</v>
       </c>
       <c r="R48" t="n">
-        <v>7046831</v>
+        <v>7046669</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6316,54 +6311,45 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Ringhack, färska</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131067824</v>
+        <v>131067458</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6371,37 +6357,42 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>466223</v>
+        <v>466199</v>
       </c>
       <c r="R49" t="n">
-        <v>7046669</v>
+        <v>7046831</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6431,35 +6422,44 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Ringhack, färska</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
@@ -8593,10 +8593,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131067807</v>
+        <v>131067026</v>
       </c>
       <c r="B67" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8604,31 +8604,26 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8636,10 +8631,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>465804</v>
+        <v>466116</v>
       </c>
       <c r="R67" t="n">
-        <v>7046812</v>
+        <v>7046744</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8676,7 +8671,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På bark av tall i barrblandskog.</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8685,32 +8680,33 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8728,10 +8724,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131067780</v>
+        <v>131067758</v>
       </c>
       <c r="B68" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8739,29 +8735,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -8771,10 +8766,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>466268</v>
+        <v>466220</v>
       </c>
       <c r="R68" t="n">
-        <v>7046893</v>
+        <v>7046897</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8809,17 +8804,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD68" t="b">
         <v>0</v>
       </c>
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8838,9 +8829,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM68" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -8858,10 +8854,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131067758</v>
+        <v>131067807</v>
       </c>
       <c r="B69" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8869,28 +8865,29 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -8900,10 +8897,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>466220</v>
+        <v>465804</v>
       </c>
       <c r="R69" t="n">
-        <v>7046897</v>
+        <v>7046812</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8938,13 +8935,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8965,12 +8966,12 @@
       </c>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8988,10 +8989,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131067026</v>
+        <v>131067780</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8999,26 +9000,31 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9026,10 +9032,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>466116</v>
+        <v>466268</v>
       </c>
       <c r="R70" t="n">
-        <v>7046744</v>
+        <v>7046893</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9066,7 +9072,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>På bark av tall i barrblandskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -9075,33 +9081,27 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
-      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM70" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -10111,10 +10111,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131067811</v>
+        <v>131066995</v>
       </c>
       <c r="B79" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -10122,50 +10122,42 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>465799</v>
+        <v>466224</v>
       </c>
       <c r="R79" t="n">
-        <v>7046814</v>
+        <v>7046722</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10202,7 +10194,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran i granskog.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -10217,6 +10209,26 @@
       <c r="AH79" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10365,10 +10377,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131066995</v>
+        <v>131067811</v>
       </c>
       <c r="B81" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10376,42 +10388,50 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>466224</v>
+        <v>465799</v>
       </c>
       <c r="R81" t="n">
-        <v>7046722</v>
+        <v>7046814</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10448,7 +10468,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran i granskog.</t>
+          <t>Synobservation av 2 st födosökande talltitor i äldre granskog med flerskiktning och murknande björkhögstubbar för bohål.</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10463,26 +10483,6 @@
       <c r="AH81" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ81" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM81" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>

--- a/artfynd/A 41290-2025 artfynd.xlsx
+++ b/artfynd/A 41290-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131067813</v>
+        <v>131067818</v>
       </c>
       <c r="B2" t="n">
-        <v>57064</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,50 +691,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102612</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>465954</v>
+        <v>465908</v>
       </c>
       <c r="R2" t="n">
-        <v>7046648</v>
+        <v>7046627</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,23 +756,34 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 födosökande järpe i en björk.</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -803,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131067818</v>
+        <v>131067813</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>57064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -814,37 +812,50 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>102612</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>465908</v>
+        <v>465954</v>
       </c>
       <c r="R3" t="n">
-        <v>7046627</v>
+        <v>7046648</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -879,34 +890,23 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 födosökande järpe i en björk.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131067020</v>
+        <v>131066991</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -935,34 +935,42 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466180</v>
+        <v>466192</v>
       </c>
       <c r="R4" t="n">
-        <v>7046800</v>
+        <v>7046678</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,7 +1007,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Ringhack, äldre, enstaka på en gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1010,6 +1018,31 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1026,10 +1059,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067470</v>
+        <v>131067779</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1037,34 +1070,42 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>465713</v>
+        <v>466288</v>
       </c>
       <c r="R5" t="n">
-        <v>7046828</v>
+        <v>7046865</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1094,24 +1135,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Död gran</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1122,26 +1153,46 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067023</v>
+        <v>131067020</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1167,19 +1218,16 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466072</v>
+        <v>466180</v>
       </c>
       <c r="R6" t="n">
-        <v>7046758</v>
+        <v>7046800</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1216,7 +1264,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1225,34 +1273,8 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1269,10 +1291,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066991</v>
+        <v>131067470</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,42 +1302,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466192</v>
+        <v>465713</v>
       </c>
       <c r="R7" t="n">
-        <v>7046678</v>
+        <v>7046828</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,14 +1359,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran.</t>
+          <t>Död gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,51 +1387,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131067779</v>
+        <v>131067023</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1415,31 +1414,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1447,10 +1441,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466288</v>
+        <v>466072</v>
       </c>
       <c r="R8" t="n">
-        <v>7046865</v>
+        <v>7046758</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,7 +1481,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1496,12 +1490,13 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1514,9 +1509,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131067812</v>
+        <v>131067028</v>
       </c>
       <c r="B9" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1545,37 +1545,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466199</v>
+        <v>466204</v>
       </c>
       <c r="R9" t="n">
-        <v>7046948</v>
+        <v>7046724</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,7 +1609,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Skrovellav på gran!</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1621,34 +1618,8 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1665,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131067028</v>
+        <v>131067027</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1700,10 +1671,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466204</v>
+        <v>466140</v>
       </c>
       <c r="R10" t="n">
-        <v>7046724</v>
+        <v>7046777</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1767,10 +1738,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131067027</v>
+        <v>131067812</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>80350</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1778,34 +1749,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466140</v>
+        <v>466199</v>
       </c>
       <c r="R11" t="n">
-        <v>7046777</v>
+        <v>7046948</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1842,7 +1816,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Skrovellav på gran!</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1851,8 +1825,34 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1869,10 +1869,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131067469</v>
+        <v>131066988</v>
       </c>
       <c r="B12" t="n">
-        <v>57064</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1880,16 +1880,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>102612</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1897,25 +1897,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>465770</v>
+        <v>465681</v>
       </c>
       <c r="R12" t="n">
-        <v>7046758</v>
+        <v>7046766</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1945,24 +1945,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Flög upp.</t>
+          <t>Ringhack, färska, enstaka på stambasen av en gran i granskog.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1973,23 +1963,48 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131066988</v>
+        <v>131066992</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -2022,7 +2037,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2032,10 +2047,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>465681</v>
+        <v>466171</v>
       </c>
       <c r="R13" t="n">
-        <v>7046766</v>
+        <v>7046705</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2072,7 +2087,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka på stambasen av en gran i granskog.</t>
+          <t>Ringhack, äldre, på ca 2 meters höjd på en tall.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2086,17 +2101,17 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -2106,7 +2121,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2124,7 +2139,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131066992</v>
+        <v>131067808</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2167,10 +2182,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466171</v>
+        <v>465816</v>
       </c>
       <c r="R14" t="n">
-        <v>7046705</v>
+        <v>7046818</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2207,7 +2222,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på ca 2 meters höjd på en tall.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2221,17 +2236,17 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -2241,7 +2256,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2259,10 +2274,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131067808</v>
+        <v>131067469</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>57064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2270,16 +2285,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>102612</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2287,25 +2302,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>465816</v>
+        <v>465770</v>
       </c>
       <c r="R15" t="n">
-        <v>7046818</v>
+        <v>7046758</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2335,14 +2350,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Flög upp.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2353,41 +2378,16 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2397,7 +2397,7 @@
         <v>131067463</v>
       </c>
       <c r="B16" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>131067459</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131067456</v>
+        <v>131067766</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2624,34 +2624,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466261</v>
+        <v>466011</v>
       </c>
       <c r="R18" t="n">
-        <v>7046745</v>
+        <v>7046933</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2681,19 +2689,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>10:34</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>10:34</t>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,26 +2707,51 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131067766</v>
+        <v>131067456</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2731,42 +2759,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466011</v>
+        <v>466261</v>
       </c>
       <c r="R19" t="n">
-        <v>7046933</v>
+        <v>7046745</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2796,14 +2816,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på gran.</t>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2814,41 +2839,16 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
@@ -2977,7 +2977,7 @@
         <v>131067025</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3076,32 +3076,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131067464</v>
+        <v>131067457</v>
       </c>
       <c r="B22" t="n">
-        <v>75221</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466197</v>
+        <v>466188</v>
       </c>
       <c r="R22" t="n">
-        <v>7046956</v>
+        <v>7046783</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3156,12 +3156,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:47</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Död sälg</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3188,48 +3183,45 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131067014</v>
+        <v>131067464</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>75222</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>465848</v>
+        <v>466197</v>
       </c>
       <c r="R23" t="n">
-        <v>7046818</v>
+        <v>7046956</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3259,14 +3251,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På gran i granskog.</t>
+          <t>Död sälg</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3275,54 +3277,28 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131067765</v>
+        <v>131067014</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3330,31 +3306,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3362,10 +3333,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466021</v>
+        <v>465848</v>
       </c>
       <c r="R24" t="n">
-        <v>7046920</v>
+        <v>7046818</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3402,7 +3373,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
+          <t>På gran i granskog.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3411,6 +3382,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3431,12 +3403,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3454,10 +3426,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131067777</v>
+        <v>131067467</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3465,42 +3437,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466291</v>
+        <v>465982</v>
       </c>
       <c r="R25" t="n">
-        <v>7046932</v>
+        <v>7046926</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3530,14 +3494,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3548,46 +3517,26 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131067457</v>
+        <v>131067765</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3595,34 +3544,42 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466188</v>
+        <v>466021</v>
       </c>
       <c r="R26" t="n">
-        <v>7046783</v>
+        <v>7046920</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3652,19 +3609,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>10:44</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>10:44</t>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Gammalt bohål 40 - 45 mm i diameter. Uthackat i stående död grantickerötad gran på 1,8 meters höjd över marken. På/kring fyndplatsen finns stående död ved som indikerar högt livsmiljövärde för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3675,26 +3627,51 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131067467</v>
+        <v>131067777</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3702,34 +3679,42 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>465982</v>
+        <v>466291</v>
       </c>
       <c r="R27" t="n">
-        <v>7046926</v>
+        <v>7046932</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3759,19 +3744,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>14:07</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>14:07</t>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3782,26 +3762,46 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131067820</v>
+        <v>131067775</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3809,34 +3809,31 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3844,10 +3841,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466201</v>
+        <v>466299</v>
       </c>
       <c r="R28" t="n">
-        <v>7046958</v>
+        <v>7047010</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3884,7 +3881,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Rikligt med garnlav här!</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3893,7 +3890,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3912,14 +3908,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3937,7 +3928,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131067775</v>
+        <v>131066990</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3980,10 +3971,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466299</v>
+        <v>466169</v>
       </c>
       <c r="R29" t="n">
-        <v>7047010</v>
+        <v>7046684</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4020,7 +4011,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4047,9 +4038,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4067,7 +4063,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131066990</v>
+        <v>131067460</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4106,14 +4102,14 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466169</v>
+        <v>466264</v>
       </c>
       <c r="R30" t="n">
-        <v>7046684</v>
+        <v>7046965</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4143,14 +4139,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4161,48 +4167,23 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067460</v>
+        <v>131067767</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4241,14 +4222,14 @@
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466264</v>
+        <v>466140</v>
       </c>
       <c r="R31" t="n">
-        <v>7046965</v>
+        <v>7046909</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4278,24 +4259,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4306,23 +4277,43 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067767</v>
+        <v>131067465</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4355,20 +4346,20 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466140</v>
+        <v>466152</v>
       </c>
       <c r="R32" t="n">
-        <v>7046909</v>
+        <v>7046928</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4398,14 +4389,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>Äldre och färska ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4416,46 +4417,26 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067465</v>
+        <v>131067820</v>
       </c>
       <c r="B33" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4463,42 +4444,45 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466152</v>
+        <v>466201</v>
       </c>
       <c r="R33" t="n">
-        <v>7046928</v>
+        <v>7046958</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4528,24 +4512,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Äldre och färska ringhack</t>
+          <t>Rikligt med garnlav här!</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4554,18 +4528,44 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4575,7 +4575,7 @@
         <v>131067815</v>
       </c>
       <c r="B34" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131067778</v>
+        <v>131067455</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4704,42 +4704,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>466299</v>
+        <v>466247</v>
       </c>
       <c r="R35" t="n">
-        <v>7046954</v>
+        <v>7046669</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4769,14 +4761,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>10:26</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4787,46 +4784,26 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131067769</v>
+        <v>131067462</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4834,42 +4811,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>466118</v>
+        <v>466212</v>
       </c>
       <c r="R36" t="n">
-        <v>7046899</v>
+        <v>7046990</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4899,14 +4868,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4917,46 +4891,26 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067466</v>
+        <v>131067823</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4964,42 +4918,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>465976</v>
+        <v>466269</v>
       </c>
       <c r="R37" t="n">
-        <v>7046933</v>
+        <v>7046701</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5029,51 +4978,42 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Äldre ringhack</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131067776</v>
+        <v>131067778</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5116,10 +5056,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466296</v>
+        <v>466299</v>
       </c>
       <c r="R38" t="n">
-        <v>7046956</v>
+        <v>7046954</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5203,10 +5143,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131067455</v>
+        <v>131067769</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5214,34 +5154,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466247</v>
+        <v>466118</v>
       </c>
       <c r="R39" t="n">
-        <v>7046669</v>
+        <v>7046899</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5271,19 +5219,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>10:26</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>10:26</t>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5294,26 +5237,46 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131067823</v>
+        <v>131067466</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5321,37 +5284,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466269</v>
+        <v>465976</v>
       </c>
       <c r="R40" t="n">
-        <v>7046701</v>
+        <v>7046933</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5381,45 +5349,54 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Äldre ringhack</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131067462</v>
+        <v>131067776</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5427,34 +5404,42 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>466212</v>
+        <v>466296</v>
       </c>
       <c r="R41" t="n">
-        <v>7046990</v>
+        <v>7046956</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5484,19 +5469,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>11:39</t>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5507,16 +5487,36 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
         <v>131067468</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>131067471</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>131067017</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>131067010</v>
       </c>
       <c r="B47" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>131067824</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>131067022</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131067004</v>
+        <v>131067019</v>
       </c>
       <c r="B54" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7003,31 +7003,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7035,10 +7030,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>465997</v>
+        <v>466214</v>
       </c>
       <c r="R54" t="n">
-        <v>7046830</v>
+        <v>7046881</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7075,7 +7070,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Rejäla hackspår i en gran med sockel.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7084,6 +7079,7 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7104,12 +7100,12 @@
       </c>
       <c r="AM54" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7127,10 +7123,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131067821</v>
+        <v>131067013</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7165,10 +7161,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>466212</v>
+        <v>465836</v>
       </c>
       <c r="R55" t="n">
-        <v>7046860</v>
+        <v>7046836</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7203,6 +7199,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran i en lucka.</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -7216,6 +7217,26 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7233,10 +7254,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131067019</v>
+        <v>131067816</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7244,26 +7265,26 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7271,10 +7292,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>466214</v>
+        <v>466283</v>
       </c>
       <c r="R56" t="n">
-        <v>7046881</v>
+        <v>7046884</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7309,11 +7330,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -7339,14 +7355,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7364,10 +7375,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131067013</v>
+        <v>131067004</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7375,26 +7386,31 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7402,10 +7418,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>465836</v>
+        <v>465997</v>
       </c>
       <c r="R57" t="n">
-        <v>7046836</v>
+        <v>7046830</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7442,7 +7458,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i en lucka.</t>
+          <t>Rejäla hackspår i en gran med sockel.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7451,7 +7467,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7472,12 +7487,12 @@
       </c>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7495,10 +7510,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131067816</v>
+        <v>131067821</v>
       </c>
       <c r="B58" t="n">
-        <v>91828</v>
+        <v>79244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7506,26 +7521,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7533,10 +7548,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>466283</v>
+        <v>466212</v>
       </c>
       <c r="R58" t="n">
-        <v>7046884</v>
+        <v>7046860</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7584,21 +7599,6 @@
       <c r="AH58" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7619,7 +7619,7 @@
         <v>131067819</v>
       </c>
       <c r="B59" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>131067016</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>131067021</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>131067015</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>131067817</v>
       </c>
       <c r="B66" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>131067026</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>131067758</v>
       </c>
       <c r="B68" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>131067472</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>131067024</v>
       </c>
       <c r="B72" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>131067029</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>131067814</v>
       </c>
       <c r="B74" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>131067822</v>
       </c>
       <c r="B75" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>131067018</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>131067011</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>

--- a/artfynd/A 41290-2025 artfynd.xlsx
+++ b/artfynd/A 41290-2025 artfynd.xlsx
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131066991</v>
+        <v>131067020</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -935,42 +935,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466192</v>
+        <v>466180</v>
       </c>
       <c r="R4" t="n">
-        <v>7046678</v>
+        <v>7046800</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1007,7 +999,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran.</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1018,31 +1010,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1059,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131067779</v>
+        <v>131067470</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,42 +1037,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466288</v>
+        <v>465713</v>
       </c>
       <c r="R5" t="n">
-        <v>7046865</v>
+        <v>7046828</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1135,14 +1094,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Död gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1153,43 +1122,23 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131067020</v>
+        <v>131067023</v>
       </c>
       <c r="B6" t="n">
         <v>79244</v>
@@ -1218,16 +1167,19 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466180</v>
+        <v>466072</v>
       </c>
       <c r="R6" t="n">
-        <v>7046800</v>
+        <v>7046758</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,7 +1216,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1273,8 +1225,34 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1291,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131067470</v>
+        <v>131066991</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1302,34 +1280,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>465713</v>
+        <v>466192</v>
       </c>
       <c r="R7" t="n">
-        <v>7046828</v>
+        <v>7046678</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1359,24 +1345,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Död gran</t>
+          <t>Ringhack, äldre, enstaka på en gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1387,26 +1363,51 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131067023</v>
+        <v>131067779</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1414,26 +1415,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1441,10 +1447,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466072</v>
+        <v>466288</v>
       </c>
       <c r="R8" t="n">
-        <v>7046758</v>
+        <v>7046865</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1481,7 +1487,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1490,13 +1496,12 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1509,14 +1514,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131066988</v>
+        <v>131067469</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>57064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1880,16 +1880,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>102612</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1897,25 +1897,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>465681</v>
+        <v>465770</v>
       </c>
       <c r="R12" t="n">
-        <v>7046766</v>
+        <v>7046758</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1945,14 +1945,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka på stambasen av en gran i granskog.</t>
+          <t>Flög upp.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1963,48 +1973,23 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131066992</v>
+        <v>131066988</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -2037,7 +2022,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2047,10 +2032,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466171</v>
+        <v>465681</v>
       </c>
       <c r="R13" t="n">
-        <v>7046705</v>
+        <v>7046766</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2087,7 +2072,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på ca 2 meters höjd på en tall.</t>
+          <t>Ringhack, färska, enstaka på stambasen av en gran i granskog.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2101,17 +2086,17 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -2121,7 +2106,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2139,7 +2124,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131067808</v>
+        <v>131066992</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2182,10 +2167,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>465816</v>
+        <v>466171</v>
       </c>
       <c r="R14" t="n">
-        <v>7046818</v>
+        <v>7046705</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2222,7 +2207,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på ca 2 meters höjd på en tall.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2236,17 +2221,17 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -2256,7 +2241,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2274,10 +2259,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131067469</v>
+        <v>131067808</v>
       </c>
       <c r="B15" t="n">
-        <v>57064</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2285,16 +2270,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>102612</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2302,25 +2287,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>465770</v>
+        <v>465816</v>
       </c>
       <c r="R15" t="n">
-        <v>7046758</v>
+        <v>7046818</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2350,24 +2335,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>14:57</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Flög upp.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2378,26 +2353,51 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131067463</v>
+        <v>131067459</v>
       </c>
       <c r="B16" t="n">
-        <v>80350</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2405,21 +2405,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466198</v>
+        <v>466261</v>
       </c>
       <c r="R16" t="n">
         <v>7046954</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2474,12 +2474,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Sälg</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2506,7 +2501,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131067459</v>
+        <v>131067456</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2544,7 +2539,7 @@
         <v>466261</v>
       </c>
       <c r="R17" t="n">
-        <v>7046954</v>
+        <v>7046745</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2576,7 +2571,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2586,7 +2581,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2613,32 +2608,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131067766</v>
+        <v>131067003</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2646,20 +2641,24 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466011</v>
+        <v>466180</v>
       </c>
       <c r="R18" t="n">
-        <v>7046933</v>
+        <v>7046822</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2696,7 +2695,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2710,27 +2709,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2748,10 +2727,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131067456</v>
+        <v>131067766</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2759,34 +2738,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466261</v>
+        <v>466011</v>
       </c>
       <c r="R19" t="n">
-        <v>7046745</v>
+        <v>7046933</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2816,19 +2803,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>10:34</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>10:34</t>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2839,73 +2821,86 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131067003</v>
+        <v>131067463</v>
       </c>
       <c r="B20" t="n">
-        <v>57073</v>
+        <v>80350</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100138</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466180</v>
+        <v>466198</v>
       </c>
       <c r="R20" t="n">
-        <v>7046822</v>
+        <v>7046954</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2935,14 +2930,24 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Färsk spillning ovanpå snötäcket under en tall.</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2953,21 +2958,16 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131067775</v>
+        <v>131067820</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3809,31 +3809,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3841,10 +3844,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466299</v>
+        <v>466201</v>
       </c>
       <c r="R28" t="n">
-        <v>7047010</v>
+        <v>7046958</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3881,7 +3884,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Rikligt med garnlav här!</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3890,6 +3893,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3908,9 +3912,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3928,10 +3937,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131066990</v>
+        <v>131067815</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3939,29 +3948,24 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3971,10 +3975,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466169</v>
+        <v>466248</v>
       </c>
       <c r="R29" t="n">
-        <v>7046684</v>
+        <v>7046866</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4009,17 +4013,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4038,14 +4038,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4063,7 +4058,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131067460</v>
+        <v>131067775</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4102,14 +4097,14 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466264</v>
+        <v>466299</v>
       </c>
       <c r="R30" t="n">
-        <v>7046965</v>
+        <v>7047010</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4139,24 +4134,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4167,23 +4152,43 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131067767</v>
+        <v>131066990</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4226,10 +4231,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466140</v>
+        <v>466169</v>
       </c>
       <c r="R31" t="n">
-        <v>7046909</v>
+        <v>7046684</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4266,7 +4271,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4280,22 +4285,27 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4313,7 +4323,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131067465</v>
+        <v>131067460</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4346,7 +4356,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -4356,10 +4366,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466152</v>
+        <v>466264</v>
       </c>
       <c r="R32" t="n">
-        <v>7046928</v>
+        <v>7046965</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4391,7 +4401,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4401,12 +4411,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Äldre och färska ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4433,10 +4443,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131067820</v>
+        <v>131067767</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4444,34 +4454,31 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4479,10 +4486,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466201</v>
+        <v>466140</v>
       </c>
       <c r="R33" t="n">
-        <v>7046958</v>
+        <v>7046909</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4519,7 +4526,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Rikligt med garnlav här!</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4528,33 +4535,27 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4572,10 +4573,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131067815</v>
+        <v>131067465</v>
       </c>
       <c r="B34" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4583,37 +4584,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466248</v>
+        <v>466152</v>
       </c>
       <c r="R34" t="n">
-        <v>7046866</v>
+        <v>7046928</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4643,50 +4649,44 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Äldre och färska ringhack</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131067462</v>
+        <v>131067823</v>
       </c>
       <c r="B36" t="n">
         <v>79244</v>
@@ -4829,16 +4829,19 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>466212</v>
+        <v>466269</v>
       </c>
       <c r="R36" t="n">
-        <v>7046990</v>
+        <v>7046701</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4868,46 +4871,42 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131067823</v>
+        <v>131067462</v>
       </c>
       <c r="B37" t="n">
         <v>79244</v>
@@ -4936,19 +4935,16 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466269</v>
+        <v>466212</v>
       </c>
       <c r="R37" t="n">
-        <v>7046701</v>
+        <v>7046990</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4978,35 +4974,39 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131067809</v>
+        <v>131067468</v>
       </c>
       <c r="B43" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5669,42 +5669,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>466011</v>
+        <v>465833</v>
       </c>
       <c r="R43" t="n">
-        <v>7046932</v>
+        <v>7046793</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5734,14 +5726,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>14:48</t>
+        </is>
+      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5752,48 +5749,23 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131067468</v>
+        <v>131067471</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -5828,10 +5800,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>465833</v>
+        <v>465684</v>
       </c>
       <c r="R44" t="n">
-        <v>7046793</v>
+        <v>7046838</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5863,7 +5835,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5873,7 +5845,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5900,7 +5872,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131067471</v>
+        <v>131067017</v>
       </c>
       <c r="B45" t="n">
         <v>79244</v>
@@ -5931,14 +5903,14 @@
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>465684</v>
+        <v>466015</v>
       </c>
       <c r="R45" t="n">
-        <v>7046838</v>
+        <v>7046893</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5968,19 +5940,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>15:18</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>15:18</t>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5995,22 +5962,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131067017</v>
+        <v>131067010</v>
       </c>
       <c r="B46" t="n">
-        <v>79244</v>
+        <v>91829</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6018,34 +5985,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>466015</v>
+        <v>465776</v>
       </c>
       <c r="R46" t="n">
-        <v>7046893</v>
+        <v>7046851</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6082,7 +6052,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Flera fruktkroppar i en stående döende gran med full längd.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6091,8 +6061,34 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
@@ -6109,10 +6105,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131067010</v>
+        <v>131067809</v>
       </c>
       <c r="B47" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6120,24 +6116,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -6147,10 +6148,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>465776</v>
+        <v>466011</v>
       </c>
       <c r="R47" t="n">
-        <v>7046851</v>
+        <v>7046932</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6187,7 +6188,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran med full längd.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6196,7 +6197,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131067824</v>
+        <v>131067458</v>
       </c>
       <c r="B48" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6251,37 +6251,42 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>466223</v>
+        <v>466199</v>
       </c>
       <c r="R48" t="n">
-        <v>7046669</v>
+        <v>7046831</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6311,45 +6316,54 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Ringhack, färska</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131067458</v>
+        <v>131067824</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6357,42 +6371,37 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>466199</v>
+        <v>466223</v>
       </c>
       <c r="R49" t="n">
-        <v>7046831</v>
+        <v>7046669</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6422,44 +6431,35 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>10:49</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Ringhack, färska</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131067019</v>
+        <v>131067821</v>
       </c>
       <c r="B54" t="n">
         <v>79244</v>
@@ -7030,10 +7030,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>466214</v>
+        <v>466212</v>
       </c>
       <c r="R54" t="n">
-        <v>7046881</v>
+        <v>7046860</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7068,11 +7068,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
@@ -7086,26 +7081,6 @@
       <c r="AH54" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7123,7 +7098,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131067013</v>
+        <v>131067019</v>
       </c>
       <c r="B55" t="n">
         <v>79244</v>
@@ -7161,10 +7136,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>465836</v>
+        <v>466214</v>
       </c>
       <c r="R55" t="n">
-        <v>7046836</v>
+        <v>7046881</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7201,7 +7176,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i en lucka.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7254,10 +7229,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131067816</v>
+        <v>131067013</v>
       </c>
       <c r="B56" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7265,26 +7240,26 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7292,10 +7267,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>466283</v>
+        <v>465836</v>
       </c>
       <c r="R56" t="n">
-        <v>7046884</v>
+        <v>7046836</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7330,6 +7305,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran i en lucka.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -7355,9 +7335,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7375,10 +7360,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131067004</v>
+        <v>131067816</v>
       </c>
       <c r="B57" t="n">
-        <v>57881</v>
+        <v>91829</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7386,29 +7371,24 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -7418,10 +7398,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>465997</v>
+        <v>466283</v>
       </c>
       <c r="R57" t="n">
-        <v>7046830</v>
+        <v>7046884</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7456,17 +7436,13 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Rejäla hackspår i en gran med sockel.</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7485,14 +7461,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7510,10 +7481,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131067821</v>
+        <v>131067004</v>
       </c>
       <c r="B58" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7521,26 +7492,31 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7548,10 +7524,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>466212</v>
+        <v>465997</v>
       </c>
       <c r="R58" t="n">
-        <v>7046860</v>
+        <v>7046830</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7586,19 +7562,43 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Rejäla hackspår i en gran med sockel.</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7616,10 +7616,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131067819</v>
+        <v>131067771</v>
       </c>
       <c r="B59" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7627,24 +7627,29 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -7654,10 +7659,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>466023</v>
+        <v>466198</v>
       </c>
       <c r="R59" t="n">
-        <v>7046926</v>
+        <v>7046862</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7692,13 +7697,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7737,10 +7746,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131067016</v>
+        <v>131067819</v>
       </c>
       <c r="B60" t="n">
-        <v>79244</v>
+        <v>91829</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7748,34 +7757,37 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>466002</v>
+        <v>466023</v>
       </c>
       <c r="R60" t="n">
-        <v>7046855</v>
+        <v>7046926</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7810,19 +7822,35 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>På gran.</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
@@ -7839,10 +7867,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131067771</v>
+        <v>131067016</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7850,42 +7878,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>466198</v>
+        <v>466002</v>
       </c>
       <c r="R61" t="n">
-        <v>7046862</v>
+        <v>7046855</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7922,7 +7942,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7933,26 +7953,6 @@
       </c>
       <c r="AG61" t="b">
         <v>0</v>
-      </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ61" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK61" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
@@ -8593,10 +8593,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131067026</v>
+        <v>131067758</v>
       </c>
       <c r="B67" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8604,26 +8604,30 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8631,10 +8635,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>466116</v>
+        <v>466220</v>
       </c>
       <c r="R67" t="n">
-        <v>7046744</v>
+        <v>7046897</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8669,11 +8673,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>På bark av tall i barrblandskog.</t>
-        </is>
-      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
@@ -8686,27 +8685,27 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Pinus sylvestris</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8724,10 +8723,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131067758</v>
+        <v>131067807</v>
       </c>
       <c r="B68" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8735,28 +8734,29 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -8766,10 +8766,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>466220</v>
+        <v>465804</v>
       </c>
       <c r="R68" t="n">
-        <v>7046897</v>
+        <v>7046812</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8804,13 +8804,17 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD68" t="b">
         <v>0</v>
       </c>
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8831,12 +8835,12 @@
       </c>
       <c r="AM68" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -8854,7 +8858,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131067807</v>
+        <v>131067780</v>
       </c>
       <c r="B69" t="n">
         <v>57884</v>
@@ -8897,10 +8901,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>465804</v>
+        <v>466268</v>
       </c>
       <c r="R69" t="n">
-        <v>7046812</v>
+        <v>7046893</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8964,14 +8968,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8989,10 +8988,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131067780</v>
+        <v>131067026</v>
       </c>
       <c r="B70" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9000,31 +8999,26 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9032,10 +9026,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>466268</v>
+        <v>466116</v>
       </c>
       <c r="R70" t="n">
-        <v>7046893</v>
+        <v>7046744</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9072,7 +9066,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På bark av tall i barrblandskog.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -9081,27 +9075,33 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131067472</v>
+        <v>131066994</v>
       </c>
       <c r="B71" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9130,34 +9130,42 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Åbogen, Jmt</t>
+          <t>Långan Öst, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>465661</v>
+        <v>466211</v>
       </c>
       <c r="R71" t="n">
-        <v>7046738</v>
+        <v>7046715</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9187,19 +9195,14 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>15:28</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>15:28</t>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, på stambasen av en gran med spår av kådaflöde som står på sluttningen av en mindre kulle.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9210,23 +9213,48 @@
       </c>
       <c r="AG71" t="b">
         <v>0</v>
+      </c>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM71" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Elin Albrechtsson</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131067024</v>
+        <v>131067472</v>
       </c>
       <c r="B72" t="n">
         <v>79244</v>
@@ -9255,19 +9283,16 @@
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Långan Öst, Jmt</t>
+          <t>Åbogen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>466097</v>
+        <v>465661</v>
       </c>
       <c r="R72" t="n">
-        <v>7046728</v>
+        <v>7046738</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9297,14 +9322,19 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>På gran i barrblandskog.</t>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9313,51 +9343,25 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
-      </c>
-      <c r="AH72" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM72" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Elin Albrechtsson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131067029</v>
+        <v>131067024</v>
       </c>
       <c r="B73" t="n">
         <v>79244</v>
@@ -9395,10 +9399,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>466255</v>
+        <v>466097</v>
       </c>
       <c r="R73" t="n">
-        <v>7046672</v>
+        <v>7046728</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9435,7 +9439,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>På gran i barrblandskog.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9450,7 +9454,7 @@
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ73" t="inlineStr">
@@ -9488,10 +9492,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131067814</v>
+        <v>131067029</v>
       </c>
       <c r="B74" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9499,26 +9503,26 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -9526,10 +9530,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>465657</v>
+        <v>466255</v>
       </c>
       <c r="R74" t="n">
-        <v>7046731</v>
+        <v>7046672</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9564,6 +9568,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
@@ -9589,9 +9598,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9609,10 +9623,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131067822</v>
+        <v>131067814</v>
       </c>
       <c r="B75" t="n">
-        <v>79244</v>
+        <v>91829</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -9620,26 +9634,26 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -9647,10 +9661,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>466268</v>
+        <v>465657</v>
       </c>
       <c r="R75" t="n">
-        <v>7046889</v>
+        <v>7046731</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9698,6 +9712,21 @@
       <c r="AH75" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9715,7 +9744,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131067018</v>
+        <v>131067822</v>
       </c>
       <c r="B76" t="n">
         <v>79244</v>
@@ -9753,10 +9782,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>466067</v>
+        <v>466268</v>
       </c>
       <c r="R76" t="n">
-        <v>7046910</v>
+        <v>7046889</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9791,11 +9820,6 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På flera granar i granskog.</t>
-        </is>
-      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -9809,26 +9833,6 @@
       <c r="AH76" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ76" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK76" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO76" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -9846,10 +9850,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131066994</v>
+        <v>131067018</v>
       </c>
       <c r="B77" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -9857,31 +9861,26 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -9889,10 +9888,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>466211</v>
+        <v>466067</v>
       </c>
       <c r="R77" t="n">
-        <v>7046715</v>
+        <v>7046910</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9929,7 +9928,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran med spår av kådaflöde som står på sluttningen av en mindre kulle.</t>
+          <t>På flera granar i granskog.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9938,6 +9937,7 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
@@ -9958,12 +9958,12 @@
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -10111,10 +10111,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131066995</v>
+        <v>131067011</v>
       </c>
       <c r="B79" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -10122,31 +10122,26 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
@@ -10154,10 +10149,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>466224</v>
+        <v>465794</v>
       </c>
       <c r="R79" t="n">
-        <v>7046722</v>
+        <v>7046853</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10194,7 +10189,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran i granskog.</t>
+          <t>På flera granar i granskog.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -10203,6 +10198,7 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
@@ -10223,12 +10219,12 @@
       </c>
       <c r="AM79" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10246,10 +10242,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131067011</v>
+        <v>131066995</v>
       </c>
       <c r="B80" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -10257,26 +10253,31 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
@@ -10284,10 +10285,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>465794</v>
+        <v>466224</v>
       </c>
       <c r="R80" t="n">
-        <v>7046853</v>
+        <v>7046722</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10324,7 +10325,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>På flera granar i granskog.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran i granskog.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -10333,7 +10334,6 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -10354,12 +10354,12 @@
       </c>
       <c r="AM80" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
